--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>457896.9318625612</v>
+        <v>399383.5293367549</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8666268.959347758</v>
+        <v>8547013.059513925</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8612872.176815499</v>
+        <v>8673692.685730744</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,22 +667,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>36.74532229879934</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.324764167328794</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>86.27197698880639</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>146.8461210887086</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="Y2" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>129.3420634549345</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>146.8461210887086</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>149.7933161434361</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
     </row>
     <row r="4">
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>52.21594625443423</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>21.41405905276474</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="D5" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>116.8405921356974</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -913,13 +913,13 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.324764167328794</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>77.08171901666381</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>123.0172992876057</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="X5" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -977,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -989,7 +989,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>131.1189721502593</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>34.92041296071469</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
     </row>
     <row r="7">
@@ -1092,10 +1092,10 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>7.935701265474393</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>13.47835778729034</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>52.21594625443431</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="H8" t="n">
-        <v>165.1725371760944</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>187.5255871663199</v>
+        <v>165.1725371760945</v>
       </c>
     </row>
     <row r="9">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>104.8814412733149</v>
+        <v>48.91300193716754</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1223,10 +1223,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>72.43289562846321</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>52.21594625443431</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>52.21594625443444</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1378,10 +1378,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>334.562205224615</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -1429,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>243.2391485592454</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1460,13 +1460,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I12" t="n">
         <v>18.81721868247742</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>146.8428862394539</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1545,10 +1545,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>239.3348485454004</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1618,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>10.89095412311097</v>
       </c>
       <c r="X14" t="n">
-        <v>201.6622187863195</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247811</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414546</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>146.8428862394544</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1782,10 +1782,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>239.3348485454009</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>136.0033847775997</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>243.2391485592454</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851184</v>
       </c>
       <c r="I18" t="n">
         <v>18.8172186824774</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414546</v>
@@ -2010,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>115.0138334144191</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>61.68477698654738</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,10 +2083,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>42.78734947751009</v>
+        <v>101.8907566840634</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>60.61873658331222</v>
+        <v>161.7494508087917</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2329,13 +2329,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>16.348254743886</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>126.5388824951702</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -2374,13 +2374,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2484,10 +2484,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>131.5522128412688</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>58.28185552386351</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>229.7965692041376</v>
+        <v>333.8863513013256</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,16 +2611,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>20.95866062610961</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>102.8695072550966</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2803,10 +2803,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>229.7965692041367</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>87.93270968653134</v>
       </c>
       <c r="H31" t="n">
-        <v>81.77200357366344</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3040,10 +3040,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>229.7965692041367</v>
+        <v>114.550553267485</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3189,16 +3189,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>106.5360147857915</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3240,19 +3240,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>20.95866062610916</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>229.7965692041376</v>
+        <v>93.91244618182704</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>150.301327678917</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>145.2400692563854</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>264.9486589497409</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>229.7965692041379</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>88.58584547962764</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>58.28185552386351</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>90.40834918925317</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>229.7965692041367</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3878,7 +3878,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V42" t="n">
-        <v>232.800587149425</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>121.4856996582646</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>168.4013722874436</v>
       </c>
     </row>
     <row r="44">
@@ -3979,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3988,13 +3988,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>229.796569204138</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>201.7225186287563</v>
       </c>
     </row>
     <row r="45">
@@ -4137,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>127.3385186497853</v>
+        <v>40.87152028304765</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>55.25282753167056</v>
+        <v>560.6825636487946</v>
       </c>
       <c r="C2" t="n">
-        <v>55.25282753167056</v>
+        <v>560.6825636487946</v>
       </c>
       <c r="D2" t="n">
-        <v>55.25282753167056</v>
+        <v>560.6825636487946</v>
       </c>
       <c r="E2" t="n">
-        <v>55.25282753167056</v>
+        <v>393.8416170062749</v>
       </c>
       <c r="F2" t="n">
-        <v>55.25282753167056</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="G2" t="n">
-        <v>55.25282753167056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>55.25282753167056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>18.13634036116618</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>11.74768968709669</v>
+        <v>21.03371160678466</v>
       </c>
       <c r="K2" t="n">
-        <v>53.10181779183023</v>
+        <v>80.81213159058893</v>
       </c>
       <c r="L2" t="n">
-        <v>141.3070323458396</v>
+        <v>191.8743094079178</v>
       </c>
       <c r="M2" t="n">
-        <v>271.1217663066259</v>
+        <v>347.1218190644747</v>
       </c>
       <c r="N2" t="n">
-        <v>407.6508467588563</v>
+        <v>509.4952041123821</v>
       </c>
       <c r="O2" t="n">
-        <v>523.2361246735306</v>
+        <v>649.4845259985577</v>
       </c>
       <c r="P2" t="n">
-        <v>587.3844843548346</v>
+        <v>734.4611726020262</v>
       </c>
       <c r="Q2" t="n">
-        <v>587.3844843548345</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R2" t="n">
-        <v>500.2410732550301</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="S2" t="n">
-        <v>500.2410732550301</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="T2" t="n">
-        <v>500.2410732550301</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="U2" t="n">
-        <v>500.2410732550301</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="V2" t="n">
-        <v>500.2410732550301</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="W2" t="n">
-        <v>500.2410732550301</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="X2" t="n">
-        <v>351.9116580139103</v>
+        <v>560.6825636487946</v>
       </c>
       <c r="Y2" t="n">
-        <v>203.5822427727904</v>
+        <v>560.6825636487946</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.74768968709669</v>
+        <v>30.53661367296056</v>
       </c>
       <c r="C3" t="n">
-        <v>11.74768968709669</v>
+        <v>30.53661367296056</v>
       </c>
       <c r="D3" t="n">
-        <v>11.74768968709669</v>
+        <v>30.53661367296056</v>
       </c>
       <c r="E3" t="n">
-        <v>11.74768968709669</v>
+        <v>30.53661367296056</v>
       </c>
       <c r="F3" t="n">
-        <v>11.74768968709669</v>
+        <v>30.53661367296056</v>
       </c>
       <c r="G3" t="n">
-        <v>11.74768968709669</v>
+        <v>30.53661367296056</v>
       </c>
       <c r="H3" t="n">
-        <v>11.74768968709669</v>
+        <v>30.53661367296056</v>
       </c>
       <c r="I3" t="n">
-        <v>11.74768968709669</v>
+        <v>30.53661367296056</v>
       </c>
       <c r="J3" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>51.36582106616815</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>150.9598290415666</v>
+        <v>183.5548280772648</v>
       </c>
       <c r="M3" t="n">
-        <v>286.538206975247</v>
+        <v>338.7690911140241</v>
       </c>
       <c r="N3" t="n">
-        <v>392.911462660324</v>
+        <v>512.5000587546599</v>
       </c>
       <c r="O3" t="n">
-        <v>511.1831359408227</v>
+        <v>649.2101578476345</v>
       </c>
       <c r="P3" t="n">
-        <v>586.7735145200479</v>
+        <v>739.5989987017058</v>
       </c>
       <c r="Q3" t="n">
-        <v>587.3844843548345</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R3" t="n">
-        <v>587.3844843548345</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="S3" t="n">
-        <v>456.7359354104562</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="T3" t="n">
-        <v>308.4065201693364</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="U3" t="n">
-        <v>160.0771049282165</v>
+        <v>560.6825636487946</v>
       </c>
       <c r="V3" t="n">
-        <v>160.0771049282165</v>
+        <v>560.6825636487946</v>
       </c>
       <c r="W3" t="n">
-        <v>160.0771049282165</v>
+        <v>371.26277863231</v>
       </c>
       <c r="X3" t="n">
-        <v>160.0771049282165</v>
+        <v>219.9563986894452</v>
       </c>
       <c r="Y3" t="n">
-        <v>160.0771049282165</v>
+        <v>30.53661367296056</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.37805236665703</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="C4" t="n">
-        <v>33.37805236665703</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="D4" t="n">
-        <v>33.37805236665703</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="E4" t="n">
-        <v>33.37805236665703</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="F4" t="n">
-        <v>33.37805236665703</v>
+        <v>697.3589686102952</v>
       </c>
       <c r="G4" t="n">
-        <v>33.37805236665703</v>
+        <v>697.3589686102952</v>
       </c>
       <c r="H4" t="n">
-        <v>33.37805236665703</v>
+        <v>697.3589686102952</v>
       </c>
       <c r="I4" t="n">
-        <v>33.37805236665703</v>
+        <v>697.3589686102952</v>
       </c>
       <c r="J4" t="n">
-        <v>33.37805236665703</v>
+        <v>697.3589686102952</v>
       </c>
       <c r="K4" t="n">
-        <v>11.74768968709669</v>
+        <v>697.3589686102952</v>
       </c>
       <c r="L4" t="n">
-        <v>14.1259580354324</v>
+        <v>709.3965921992913</v>
       </c>
       <c r="M4" t="n">
-        <v>19.89179156510269</v>
+        <v>725.3468614886966</v>
       </c>
       <c r="N4" t="n">
-        <v>33.37805236665703</v>
+        <v>748.7753949309528</v>
       </c>
       <c r="O4" t="n">
-        <v>33.37805236665703</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="P4" t="n">
-        <v>33.37805236665703</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="Q4" t="n">
-        <v>33.37805236665703</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R4" t="n">
-        <v>33.37805236665703</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="S4" t="n">
-        <v>33.37805236665703</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="T4" t="n">
-        <v>33.37805236665703</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="U4" t="n">
-        <v>33.37805236665703</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="V4" t="n">
-        <v>33.37805236665703</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="W4" t="n">
-        <v>33.37805236665703</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="X4" t="n">
-        <v>33.37805236665703</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="Y4" t="n">
-        <v>33.37805236665703</v>
+        <v>750.1023486652792</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>314.7951708434059</v>
+        <v>322.4426321268584</v>
       </c>
       <c r="C5" t="n">
-        <v>314.7951708434059</v>
+        <v>133.0228471103737</v>
       </c>
       <c r="D5" t="n">
-        <v>166.465755602286</v>
+        <v>133.0228471103737</v>
       </c>
       <c r="E5" t="n">
-        <v>166.465755602286</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F5" t="n">
-        <v>166.465755602286</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G5" t="n">
-        <v>166.465755602286</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H5" t="n">
-        <v>18.13634036116618</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I5" t="n">
-        <v>18.13634036116618</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J5" t="n">
-        <v>11.74768968709669</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K5" t="n">
-        <v>53.10181779183017</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L5" t="n">
-        <v>141.3070323458395</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M5" t="n">
-        <v>271.1217663066255</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N5" t="n">
-        <v>407.6508467588559</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O5" t="n">
-        <v>523.2361246735304</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P5" t="n">
-        <v>587.3844843548345</v>
+        <v>734.4611726020262</v>
       </c>
       <c r="Q5" t="n">
-        <v>587.3844843548345</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R5" t="n">
-        <v>587.3844843548345</v>
+        <v>672.2420264262249</v>
       </c>
       <c r="S5" t="n">
-        <v>587.3844843548345</v>
+        <v>511.862417143343</v>
       </c>
       <c r="T5" t="n">
-        <v>587.3844843548345</v>
+        <v>511.862417143343</v>
       </c>
       <c r="U5" t="n">
-        <v>587.3844843548345</v>
+        <v>511.862417143343</v>
       </c>
       <c r="V5" t="n">
-        <v>463.1245860845257</v>
+        <v>511.862417143343</v>
       </c>
       <c r="W5" t="n">
-        <v>463.1245860845257</v>
+        <v>322.4426321268584</v>
       </c>
       <c r="X5" t="n">
-        <v>314.7951708434059</v>
+        <v>322.4426321268584</v>
       </c>
       <c r="Y5" t="n">
-        <v>314.7951708434059</v>
+        <v>322.4426321268584</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>439.0550691137147</v>
+        <v>335.9896342275476</v>
       </c>
       <c r="C6" t="n">
-        <v>439.0550691137147</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="D6" t="n">
-        <v>290.7256538725949</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="E6" t="n">
-        <v>290.7256538725949</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="F6" t="n">
-        <v>144.1910958994798</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G6" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H6" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I6" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J6" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K6" t="n">
-        <v>12.36141687342361</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L6" t="n">
-        <v>111.9554248488221</v>
+        <v>183.5548280772648</v>
       </c>
       <c r="M6" t="n">
-        <v>247.5338027825024</v>
+        <v>338.7690911140241</v>
       </c>
       <c r="N6" t="n">
-        <v>392.911462660324</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O6" t="n">
-        <v>511.1831359408227</v>
+        <v>649.2101578476345</v>
       </c>
       <c r="P6" t="n">
-        <v>586.7735145200479</v>
+        <v>739.5989987017058</v>
       </c>
       <c r="Q6" t="n">
-        <v>587.3844843548345</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R6" t="n">
-        <v>587.3844843548345</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="S6" t="n">
-        <v>439.0550691137147</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="T6" t="n">
-        <v>439.0550691137147</v>
+        <v>560.6825636487946</v>
       </c>
       <c r="U6" t="n">
-        <v>439.0550691137147</v>
+        <v>560.6825636487946</v>
       </c>
       <c r="V6" t="n">
-        <v>439.0550691137147</v>
+        <v>560.6825636487946</v>
       </c>
       <c r="W6" t="n">
-        <v>439.0550691137147</v>
+        <v>560.6825636487946</v>
       </c>
       <c r="X6" t="n">
-        <v>439.0550691137147</v>
+        <v>525.4094192440323</v>
       </c>
       <c r="Y6" t="n">
-        <v>439.0550691137147</v>
+        <v>335.9896342275476</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C7" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D7" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E7" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F7" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G7" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H7" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I7" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J7" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K7" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L7" t="n">
-        <v>14.1259580354324</v>
+        <v>27.03967056230172</v>
       </c>
       <c r="M7" t="n">
-        <v>19.89179156510269</v>
+        <v>42.9899398517071</v>
       </c>
       <c r="N7" t="n">
-        <v>33.37805236665703</v>
+        <v>66.41847329396325</v>
       </c>
       <c r="O7" t="n">
-        <v>25.36219250254148</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="P7" t="n">
-        <v>11.74768968709669</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="Q7" t="n">
-        <v>11.74768968709669</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="R7" t="n">
-        <v>11.74768968709669</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="S7" t="n">
-        <v>11.74768968709669</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="T7" t="n">
-        <v>11.74768968709669</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="U7" t="n">
-        <v>11.74768968709669</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="V7" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W7" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X7" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y7" t="n">
-        <v>11.74768968709669</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>560.6825636487947</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="C8" t="n">
-        <v>560.6825636487947</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="D8" t="n">
-        <v>560.6825636487947</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="E8" t="n">
-        <v>560.6825636487947</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="F8" t="n">
-        <v>371.26277863231</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="G8" t="n">
-        <v>181.8429936158252</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H8" t="n">
         <v>15.00204697330559</v>
@@ -4804,10 +4804,10 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058933</v>
       </c>
       <c r="L8" t="n">
         <v>191.8743094079184</v>
@@ -4819,37 +4819,37 @@
         <v>509.4952041123826</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985578</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020262</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R8" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="S8" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="T8" t="n">
-        <v>750.1023486652795</v>
+        <v>560.6825636487946</v>
       </c>
       <c r="U8" t="n">
-        <v>750.1023486652795</v>
+        <v>371.26277863231</v>
       </c>
       <c r="V8" t="n">
-        <v>750.1023486652795</v>
+        <v>371.26277863231</v>
       </c>
       <c r="W8" t="n">
-        <v>750.1023486652795</v>
+        <v>371.26277863231</v>
       </c>
       <c r="X8" t="n">
-        <v>750.1023486652795</v>
+        <v>371.26277863231</v>
       </c>
       <c r="Y8" t="n">
-        <v>560.6825636487947</v>
+        <v>204.4218319897903</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>644.1614988942544</v>
+        <v>476.2476595172182</v>
       </c>
       <c r="C9" t="n">
-        <v>469.7084696131274</v>
+        <v>476.2476595172182</v>
       </c>
       <c r="D9" t="n">
-        <v>320.7740599518761</v>
+        <v>327.3132498559669</v>
       </c>
       <c r="E9" t="n">
-        <v>161.5366049464206</v>
+        <v>168.0757948505114</v>
       </c>
       <c r="F9" t="n">
-        <v>15.00204697330559</v>
+        <v>168.0757948505114</v>
       </c>
       <c r="G9" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296056</v>
       </c>
       <c r="H9" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296056</v>
       </c>
       <c r="I9" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296056</v>
       </c>
       <c r="J9" t="n">
         <v>15.00204697330559</v>
@@ -4889,46 +4889,46 @@
         <v>67.13418877024208</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772648</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140241</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546598</v>
+        <v>512.5000587546599</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476345</v>
       </c>
       <c r="P9" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017058</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R9" t="n">
-        <v>750.1023486652795</v>
+        <v>676.9378076264275</v>
       </c>
       <c r="S9" t="n">
-        <v>750.1023486652795</v>
+        <v>525.6547321810237</v>
       </c>
       <c r="T9" t="n">
-        <v>750.1023486652795</v>
+        <v>525.6547321810237</v>
       </c>
       <c r="U9" t="n">
-        <v>750.1023486652795</v>
+        <v>525.6547321810237</v>
       </c>
       <c r="V9" t="n">
-        <v>750.1023486652795</v>
+        <v>525.6547321810237</v>
       </c>
       <c r="W9" t="n">
-        <v>750.1023486652795</v>
+        <v>525.6547321810237</v>
       </c>
       <c r="X9" t="n">
-        <v>750.1023486652795</v>
+        <v>525.6547321810237</v>
       </c>
       <c r="Y9" t="n">
-        <v>750.1023486652795</v>
+        <v>525.6547321810237</v>
       </c>
     </row>
     <row r="10">
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="C10" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="D10" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="E10" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="F10" t="n">
         <v>15.00204697330559</v>
@@ -4968,46 +4968,46 @@
         <v>15.00204697330559</v>
       </c>
       <c r="L10" t="n">
-        <v>27.03967056230175</v>
+        <v>27.03967056230172</v>
       </c>
       <c r="M10" t="n">
-        <v>42.98993985170716</v>
+        <v>42.9899398517071</v>
       </c>
       <c r="N10" t="n">
-        <v>66.41847329396334</v>
+        <v>66.41847329396325</v>
       </c>
       <c r="O10" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="P10" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="Q10" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="R10" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="S10" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="T10" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="U10" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="V10" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="W10" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="X10" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828974</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2303.170539913434</v>
+        <v>1844.338003964587</v>
       </c>
       <c r="C11" t="n">
-        <v>1934.208022973022</v>
+        <v>1475.375487024175</v>
       </c>
       <c r="D11" t="n">
-        <v>1575.942324366272</v>
+        <v>1117.109788417425</v>
       </c>
       <c r="E11" t="n">
-        <v>1190.154071768027</v>
+        <v>1117.109788417425</v>
       </c>
       <c r="F11" t="n">
         <v>779.1681669784198</v>
@@ -5077,16 +5077,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.605821609171</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W11" t="n">
-        <v>3325.605821609171</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="X11" t="n">
-        <v>3079.909711953368</v>
+        <v>2621.07717600452</v>
       </c>
       <c r="Y11" t="n">
-        <v>2689.770379977556</v>
+        <v>2230.937844028709</v>
       </c>
     </row>
     <row r="12">
@@ -5108,10 +5108,10 @@
         <v>458.9189605332746</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H12" t="n">
         <v>85.51940803064545</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>920.8870058181849</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C13" t="n">
-        <v>920.8870058181849</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
@@ -5235,16 +5235,16 @@
         <v>920.8870058181849</v>
       </c>
       <c r="V13" t="n">
-        <v>920.8870058181849</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="W13" t="n">
-        <v>920.8870058181849</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="X13" t="n">
-        <v>920.8870058181849</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="Y13" t="n">
-        <v>920.8870058181849</v>
+        <v>679.1346335501037</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2345.167438673965</v>
+        <v>1594.601034732593</v>
       </c>
       <c r="C14" t="n">
-        <v>1976.204921733553</v>
+        <v>1225.638517792182</v>
       </c>
       <c r="D14" t="n">
-        <v>1617.939223126803</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.150970528558</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
@@ -5305,25 +5305,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V14" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W14" t="n">
-        <v>3325.605821609171</v>
+        <v>2744.805965033606</v>
       </c>
       <c r="X14" t="n">
-        <v>3121.906610713899</v>
+        <v>2371.340206772526</v>
       </c>
       <c r="Y14" t="n">
-        <v>2731.767278738087</v>
+        <v>1981.200874796715</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
@@ -5381,22 +5381,22 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
         <v>1317.519490266131</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>920.8870058181855</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C16" t="n">
-        <v>920.8870058181855</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
@@ -5472,16 +5472,16 @@
         <v>920.8870058181855</v>
       </c>
       <c r="V16" t="n">
-        <v>920.8870058181855</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="W16" t="n">
-        <v>920.8870058181855</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="X16" t="n">
-        <v>920.8870058181855</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="Y16" t="n">
-        <v>920.8870058181855</v>
+        <v>679.1346335501037</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2303.170539913434</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C17" t="n">
-        <v>1934.208022973022</v>
+        <v>1561.13247157855</v>
       </c>
       <c r="D17" t="n">
-        <v>1575.942324366272</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E17" t="n">
-        <v>1190.154071768027</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F17" t="n">
-        <v>779.1681669784198</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G17" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218342</v>
@@ -5542,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V17" t="n">
-        <v>3079.909711953368</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W17" t="n">
-        <v>3079.909711953368</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X17" t="n">
-        <v>3079.909711953368</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2689.770379977556</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H18" t="n">
         <v>85.51940803064545</v>
@@ -5618,22 +5618,22 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U18" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X18" t="n">
         <v>1317.519490266131</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>182.6877057396775</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="C19" t="n">
-        <v>182.6877057396775</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="D19" t="n">
-        <v>182.6877057396775</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E19" t="n">
-        <v>182.6877057396775</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F19" t="n">
-        <v>182.6877057396775</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G19" t="n">
-        <v>182.6877057396775</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
         <v>66.51211643218342</v>
@@ -5703,22 +5703,22 @@
         <v>920.8870058181855</v>
       </c>
       <c r="T19" t="n">
-        <v>920.8870058181855</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="U19" t="n">
-        <v>920.8870058181855</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="V19" t="n">
-        <v>920.8870058181855</v>
+        <v>444.4359021818246</v>
       </c>
       <c r="W19" t="n">
-        <v>631.4698357812249</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="X19" t="n">
-        <v>403.4802848832076</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="Y19" t="n">
-        <v>182.6877057396775</v>
+        <v>382.1280466398576</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1632.511388127729</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="C20" t="n">
-        <v>1263.548871187317</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D20" t="n">
-        <v>905.2831725805665</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E20" t="n">
-        <v>519.4949199823222</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
-        <v>108.5090151927147</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
@@ -5764,40 +5764,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U20" t="n">
-        <v>3076.408529066615</v>
+        <v>3112.395196889737</v>
       </c>
       <c r="V20" t="n">
-        <v>2745.345641723045</v>
+        <v>2781.332309546166</v>
       </c>
       <c r="W20" t="n">
-        <v>2392.57698645293</v>
+        <v>2428.563654276052</v>
       </c>
       <c r="X20" t="n">
-        <v>2019.11122819185</v>
+        <v>2055.097896014972</v>
       </c>
       <c r="Y20" t="n">
-        <v>2019.11122819185</v>
+        <v>1664.958564039161</v>
       </c>
     </row>
     <row r="21">
@@ -5831,13 +5831,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031473</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>296.6793464139411</v>
+        <v>376.785347575338</v>
       </c>
       <c r="C22" t="n">
-        <v>127.7431634860341</v>
+        <v>376.785347575338</v>
       </c>
       <c r="D22" t="n">
-        <v>127.7431634860341</v>
+        <v>376.785347575338</v>
       </c>
       <c r="E22" t="n">
-        <v>127.7431634860341</v>
+        <v>376.785347575338</v>
       </c>
       <c r="F22" t="n">
-        <v>127.7431634860341</v>
+        <v>229.8954000774276</v>
       </c>
       <c r="G22" t="n">
         <v>66.51211643218342</v>
@@ -5910,52 +5910,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962287</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K22" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L22" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M22" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N22" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O22" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P22" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q22" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R22" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S22" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T22" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U22" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V22" t="n">
-        <v>699.1203903877109</v>
+        <v>666.2025176122986</v>
       </c>
       <c r="W22" t="n">
-        <v>699.1203903877109</v>
+        <v>376.785347575338</v>
       </c>
       <c r="X22" t="n">
-        <v>699.1203903877109</v>
+        <v>376.785347575338</v>
       </c>
       <c r="Y22" t="n">
-        <v>478.3278112441808</v>
+        <v>376.785347575338</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2175.400891308157</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="C23" t="n">
-        <v>1806.438374367745</v>
+        <v>869.0763550278973</v>
       </c>
       <c r="D23" t="n">
-        <v>1448.172675760994</v>
+        <v>510.8106564211468</v>
       </c>
       <c r="E23" t="n">
-        <v>1062.38442316275</v>
+        <v>125.0224038229026</v>
       </c>
       <c r="F23" t="n">
-        <v>651.3985183731427</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G23" t="n">
-        <v>236.3260682181391</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H23" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
         <v>2120.555556060171</v>
@@ -6013,28 +6013,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U23" t="n">
-        <v>3325.60582160917</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V23" t="n">
-        <v>3325.60582160917</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W23" t="n">
-        <v>3325.60582160917</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X23" t="n">
-        <v>2952.14006334809</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y23" t="n">
-        <v>2562.000731372279</v>
+        <v>1624.638712032431</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I24" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2790.283754563412</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C25" t="n">
-        <v>2621.347571635505</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D25" t="n">
-        <v>2471.230932223169</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E25" t="n">
-        <v>2471.230932223169</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F25" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G25" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K25" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L25" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M25" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N25" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O25" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P25" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R25" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S25" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T25" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U25" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V25" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W25" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X25" t="n">
-        <v>3192.724798537181</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y25" t="n">
-        <v>2971.932219393651</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1822.632236038043</v>
+        <v>1611.504630229388</v>
       </c>
       <c r="C26" t="n">
-        <v>1453.669719097632</v>
+        <v>1242.542113288976</v>
       </c>
       <c r="D26" t="n">
-        <v>1095.404020490881</v>
+        <v>1242.542113288976</v>
       </c>
       <c r="E26" t="n">
-        <v>709.615767892637</v>
+        <v>856.7538606907319</v>
       </c>
       <c r="F26" t="n">
-        <v>298.6298631030294</v>
+        <v>445.7679559011244</v>
       </c>
       <c r="G26" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6250,28 +6250,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V26" t="n">
-        <v>3325.605821609171</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W26" t="n">
-        <v>2972.837166339057</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X26" t="n">
-        <v>2599.371408077977</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="Y26" t="n">
-        <v>2209.232076102165</v>
+        <v>1998.10447029351</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>66.51211643218342</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C28" t="n">
-        <v>66.51211643218342</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D28" t="n">
-        <v>66.51211643218342</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E28" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F28" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J28" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L28" t="n">
         <v>332.3555681596505</v>
@@ -6414,22 +6414,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T28" t="n">
-        <v>899.7166415493873</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U28" t="n">
-        <v>610.6137746750309</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V28" t="n">
-        <v>355.929286469144</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W28" t="n">
-        <v>66.51211643218342</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X28" t="n">
-        <v>66.51211643218342</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y28" t="n">
-        <v>66.51211643218342</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1822.632236038042</v>
+        <v>1594.601034732593</v>
       </c>
       <c r="C29" t="n">
-        <v>1453.669719097631</v>
+        <v>1225.638517792182</v>
       </c>
       <c r="D29" t="n">
-        <v>1095.40402049088</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E29" t="n">
-        <v>709.6157678926361</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F29" t="n">
-        <v>298.6298631030285</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
         <v>2120.555556060171</v>
@@ -6487,28 +6487,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V29" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W29" t="n">
-        <v>2972.837166339056</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X29" t="n">
-        <v>2599.371408077976</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y29" t="n">
-        <v>2209.232076102164</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>149.1100998399243</v>
+        <v>155.3330353074676</v>
       </c>
       <c r="C31" t="n">
-        <v>149.1100998399243</v>
+        <v>155.3330353074676</v>
       </c>
       <c r="D31" t="n">
-        <v>149.1100998399243</v>
+        <v>155.3330353074676</v>
       </c>
       <c r="E31" t="n">
-        <v>149.1100998399243</v>
+        <v>155.3330353074676</v>
       </c>
       <c r="F31" t="n">
-        <v>149.1100998399243</v>
+        <v>155.3330353074676</v>
       </c>
       <c r="G31" t="n">
-        <v>149.1100998399243</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L31" t="n">
         <v>332.3555681596505</v>
@@ -6651,22 +6651,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T31" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U31" t="n">
-        <v>631.7841389438285</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="V31" t="n">
-        <v>377.0996507379416</v>
+        <v>155.3330353074676</v>
       </c>
       <c r="W31" t="n">
-        <v>377.0996507379416</v>
+        <v>155.3330353074676</v>
       </c>
       <c r="X31" t="n">
-        <v>149.1100998399243</v>
+        <v>155.3330353074676</v>
       </c>
       <c r="Y31" t="n">
-        <v>149.1100998399243</v>
+        <v>155.3330353074676</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1822.632236038042</v>
+        <v>1295.236214140706</v>
       </c>
       <c r="C32" t="n">
-        <v>1453.669719097631</v>
+        <v>926.2736972002942</v>
       </c>
       <c r="D32" t="n">
-        <v>1095.40402049088</v>
+        <v>568.0079985935438</v>
       </c>
       <c r="E32" t="n">
-        <v>709.6157678926361</v>
+        <v>182.2197459952995</v>
       </c>
       <c r="F32" t="n">
-        <v>298.6298631030285</v>
+        <v>182.2197459952995</v>
       </c>
       <c r="G32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
         <v>2120.555556060171</v>
@@ -6724,28 +6724,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U32" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V32" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W32" t="n">
-        <v>2972.837166339056</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X32" t="n">
-        <v>2599.371408077976</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y32" t="n">
-        <v>2209.232076102164</v>
+        <v>1681.836054204828</v>
       </c>
     </row>
     <row r="33">
@@ -6776,7 +6776,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2471.230932223169</v>
+        <v>471.1308394896936</v>
       </c>
       <c r="C34" t="n">
-        <v>2471.230932223169</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D34" t="n">
-        <v>2471.230932223169</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E34" t="n">
-        <v>2471.230932223169</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K34" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L34" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M34" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N34" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O34" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P34" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T34" t="n">
-        <v>3304.435457340373</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U34" t="n">
-        <v>3015.332590466016</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V34" t="n">
-        <v>2760.64810226013</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W34" t="n">
-        <v>2471.230932223169</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="X34" t="n">
-        <v>2471.230932223169</v>
+        <v>471.1308394896936</v>
       </c>
       <c r="Y34" t="n">
-        <v>2471.230932223169</v>
+        <v>471.1308394896936</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1822.632236038043</v>
+        <v>1685.375546116518</v>
       </c>
       <c r="C35" t="n">
-        <v>1453.669719097632</v>
+        <v>1316.413029176106</v>
       </c>
       <c r="D35" t="n">
-        <v>1095.404020490881</v>
+        <v>958.1473305693555</v>
       </c>
       <c r="E35" t="n">
-        <v>709.615767892637</v>
+        <v>572.3590779711112</v>
       </c>
       <c r="F35" t="n">
-        <v>298.6298631030294</v>
+        <v>161.3731731815037</v>
       </c>
       <c r="G35" t="n">
         <v>66.51211643218342</v>
@@ -6937,10 +6937,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329465</v>
@@ -6949,7 +6949,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
@@ -6964,25 +6964,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V35" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W35" t="n">
-        <v>2972.837166339057</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X35" t="n">
-        <v>2599.371408077977</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y35" t="n">
-        <v>2209.232076102165</v>
+        <v>2071.975386180639</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2623.050455131167</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="C37" t="n">
-        <v>2623.050455131167</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D37" t="n">
-        <v>2623.050455131167</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E37" t="n">
-        <v>2623.050455131167</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F37" t="n">
-        <v>2623.050455131167</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G37" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H37" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K37" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L37" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M37" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N37" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O37" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P37" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R37" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S37" t="n">
-        <v>3133.919937435997</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T37" t="n">
-        <v>2912.153322005523</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U37" t="n">
-        <v>2623.050455131167</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V37" t="n">
-        <v>2623.050455131167</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W37" t="n">
-        <v>2623.050455131167</v>
+        <v>774.1798651551693</v>
       </c>
       <c r="X37" t="n">
-        <v>2623.050455131167</v>
+        <v>546.190314257152</v>
       </c>
       <c r="Y37" t="n">
-        <v>2623.050455131167</v>
+        <v>546.190314257152</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1590.514489367197</v>
+        <v>1514.348043559526</v>
       </c>
       <c r="C38" t="n">
-        <v>1221.551972426786</v>
+        <v>1145.385526619114</v>
       </c>
       <c r="D38" t="n">
-        <v>863.2862738200351</v>
+        <v>787.1198280123635</v>
       </c>
       <c r="E38" t="n">
-        <v>477.498021221791</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F38" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
         <v>66.51211643218342</v>
@@ -7201,25 +7201,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V38" t="n">
-        <v>3093.488074938325</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W38" t="n">
-        <v>2740.71941966821</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X38" t="n">
-        <v>2367.25366140713</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y38" t="n">
-        <v>1977.114329431319</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="39">
@@ -7256,10 +7256,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>66.51211643218342</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C40" t="n">
-        <v>66.51211643218342</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D40" t="n">
-        <v>66.51211643218342</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E40" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F40" t="n">
         <v>66.51211643218342</v>
@@ -7365,19 +7365,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U40" t="n">
-        <v>831.406353818561</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V40" t="n">
-        <v>576.7218656126742</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W40" t="n">
-        <v>287.3046955757135</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X40" t="n">
-        <v>287.3046955757135</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y40" t="n">
-        <v>66.51211643218342</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1822.632236038042</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C41" t="n">
-        <v>1453.669719097631</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D41" t="n">
-        <v>1095.40402049088</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E41" t="n">
-        <v>709.6157678926361</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F41" t="n">
-        <v>298.6298631030285</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G41" t="n">
         <v>66.5121164321834</v>
@@ -7438,25 +7438,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V41" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W41" t="n">
-        <v>2972.837166339056</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X41" t="n">
-        <v>2599.371408077976</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y41" t="n">
-        <v>2209.232076102164</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="42">
@@ -7523,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.2249443698244</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="C43" t="n">
-        <v>189.2249443698244</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D43" t="n">
-        <v>189.2249443698244</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E43" t="n">
-        <v>189.2249443698244</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F43" t="n">
-        <v>189.2249443698244</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G43" t="n">
         <v>66.5121164321834</v>
@@ -7602,19 +7602,19 @@
         <v>699.1203903877109</v>
       </c>
       <c r="U43" t="n">
-        <v>410.0175235133545</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V43" t="n">
-        <v>410.0175235133545</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W43" t="n">
-        <v>410.0175235133545</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="X43" t="n">
-        <v>410.0175235133545</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="Y43" t="n">
-        <v>189.2249443698244</v>
+        <v>529.0179941377679</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1822.632236038044</v>
+        <v>1108.149668028411</v>
       </c>
       <c r="C44" t="n">
-        <v>1453.669719097632</v>
+        <v>1108.149668028411</v>
       </c>
       <c r="D44" t="n">
-        <v>1095.404020490882</v>
+        <v>749.8839694216604</v>
       </c>
       <c r="E44" t="n">
-        <v>709.6157678926375</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F44" t="n">
-        <v>298.6298631030299</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V44" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W44" t="n">
-        <v>2972.837166339057</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X44" t="n">
-        <v>2599.371408077977</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y44" t="n">
-        <v>2209.232076102166</v>
+        <v>1494.749508092533</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X45" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="46">
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>66.51211643218343</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="C46" t="n">
-        <v>66.51211643218343</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D46" t="n">
-        <v>66.51211643218343</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E46" t="n">
-        <v>66.51211643218343</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K46" t="n">
         <v>176.6457242372933</v>
@@ -7815,43 +7815,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M46" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N46" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O46" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P46" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q46" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R46" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S46" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T46" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U46" t="n">
-        <v>792.2622395052706</v>
+        <v>879.6026418959145</v>
       </c>
       <c r="V46" t="n">
-        <v>537.5777512993837</v>
+        <v>879.6026418959145</v>
       </c>
       <c r="W46" t="n">
-        <v>248.1605812624231</v>
+        <v>879.6026418959145</v>
       </c>
       <c r="X46" t="n">
-        <v>248.1605812624231</v>
+        <v>879.6026418959145</v>
       </c>
       <c r="Y46" t="n">
-        <v>248.1605812624231</v>
+        <v>879.6026418959145</v>
       </c>
     </row>
   </sheetData>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>235.8877205747719</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22555,19 +22555,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>216.7578328961673</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753916</v>
       </c>
       <c r="G2" t="n">
-        <v>413.2441370602317</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H2" t="n">
-        <v>318.3921602069877</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>94.36637323394321</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666381</v>
       </c>
       <c r="S2" t="n">
-        <v>162.1097117201341</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>214.0843260727917</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1809648714442</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22612,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>222.8849795897604</v>
+        <v>182.2055135121492</v>
       </c>
       <c r="Y2" t="n">
-        <v>239.391817567345</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.68706256115871</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22640,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.2420688160423</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>101.5977720414757</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>61.59970664354543</v>
+        <v>58.9045589040915</v>
       </c>
       <c r="J3" t="n">
-        <v>22.77491242827334</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>77.29308816345809</v>
+        <v>72.43289562846321</v>
       </c>
       <c r="S3" t="n">
-        <v>21.88218769163137</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>48.87899782081595</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>79.02279728521563</v>
+        <v>38.33818124377112</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.1693959945998</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>55.9796690600414</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098455</v>
       </c>
     </row>
     <row r="4">
@@ -22716,22 +22716,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>93.20510176849702</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0675620642408</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>154.0171532915746</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>127.6807984793224</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>61.70981873818782</v>
+        <v>57.06999962825419</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3148989349955578</v>
+        <v>14.10430989402855</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22743,25 +22743,25 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>7.935701265474393</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>26.04487966482527</v>
+        <v>18.10760906709389</v>
       </c>
       <c r="Q4" t="n">
-        <v>74.1813952927055</v>
+        <v>68.68604055159727</v>
       </c>
       <c r="R4" t="n">
-        <v>135.7731919480611</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>207.923953009556</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>224.0000791711685</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2686611404426</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22786,25 +22786,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046877</v>
       </c>
       <c r="D5" t="n">
-        <v>207.8369205319743</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>265.0897779365644</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.2441370602317</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H5" t="n">
-        <v>171.5460391182791</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I5" t="n">
-        <v>131.1116955327425</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,25 +22831,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>86.27197698880639</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>162.1097117201341</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>214.0843260727917</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1809648714442</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V5" t="n">
-        <v>204.7349591825292</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510932</v>
       </c>
       <c r="X5" t="n">
-        <v>222.8849795897604</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22865,10 +22865,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.598944475930125</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22877,16 +22877,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>5.123096665782924</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
-        <v>101.5977720414757</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>61.59970664354543</v>
+        <v>58.9045589040915</v>
       </c>
       <c r="J6" t="n">
-        <v>22.77491242827334</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>77.29308816345809</v>
+        <v>72.43289562846321</v>
       </c>
       <c r="S6" t="n">
-        <v>4.37813005785722</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
-        <v>195.7251189095246</v>
+        <v>7.884010625681441</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8689183739243</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22928,10 +22928,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>170.8525722427628</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098455</v>
       </c>
     </row>
     <row r="7">
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0675620642408</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H7" t="n">
-        <v>154.0171532915746</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I7" t="n">
-        <v>127.6807984793224</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>61.70981873818782</v>
+        <v>57.06999962825419</v>
       </c>
       <c r="K7" t="n">
-        <v>21.7289579877603</v>
+        <v>14.10430989402855</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,25 +22983,25 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>12.56652187753493</v>
+        <v>18.10760906709389</v>
       </c>
       <c r="Q7" t="n">
-        <v>74.1813952927055</v>
+        <v>68.68604055159727</v>
       </c>
       <c r="R7" t="n">
-        <v>135.7731919480611</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S7" t="n">
-        <v>207.923953009556</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T7" t="n">
-        <v>224.0000791711685</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2686611404426</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>199.9216970693937</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23032,13 +23032,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>219.3504585753916</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>225.5722460637382</v>
       </c>
       <c r="H8" t="n">
-        <v>151.7212889301279</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
         <v>125.4713171199747</v>
@@ -23068,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>77.08171901666378</v>
+        <v>77.08171901666381</v>
       </c>
       <c r="S8" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988697</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871052</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>198.7123514897337</v>
+        <v>221.0654014799591</v>
       </c>
     </row>
     <row r="9">
@@ -23099,10 +23099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>61.65174237655248</v>
+        <v>117.6201817126998</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -23111,19 +23111,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>58.90455890409149</v>
+        <v>58.9045589040915</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,10 +23147,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>72.4328956284632</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>195.4095977920013</v>
@@ -23190,7 +23190,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>93.20510176849693</v>
       </c>
       <c r="G10" t="n">
         <v>167.0019352027142</v>
@@ -23202,10 +23202,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>57.06999962825418</v>
+        <v>57.06999962825419</v>
       </c>
       <c r="K10" t="n">
-        <v>14.10430989402852</v>
+        <v>14.10430989402855</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,10 +23220,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>18.10760906709386</v>
+        <v>18.10760906709389</v>
       </c>
       <c r="Q10" t="n">
-        <v>16.47009429716282</v>
+        <v>68.68604055159727</v>
       </c>
       <c r="R10" t="n">
         <v>132.8223696106904</v>
@@ -23266,10 +23266,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>72.31384051709642</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23317,13 +23317,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>126.4919521192237</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>1.772586778758495</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>12.80279477842763</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23506,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>338.350014594302</v>
       </c>
       <c r="X14" t="n">
-        <v>168.0688818921495</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>1.772586778757926</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>12.80279477842706</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>229.2695069934078</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23746,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>84.51310991088954</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23898,16 +23898,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>29.7411814999017</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23943,22 +23943,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>224.8382213500436</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23971,10 +23971,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>208.2078224813919</v>
+        <v>149.1044152748385</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,10 +24138,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>105.407071675716</v>
+        <v>4.276357450236475</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24217,13 +24217,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>390.5277909978254</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>168.0688818921502</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24262,13 +24262,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24372,10 +24372,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -24429,10 +24429,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>94.15744254776834</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>160.3027978282313</v>
       </c>
     </row>
     <row r="26">
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>181.1251564493159</v>
+        <v>77.03537435212786</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,16 +24499,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24654,16 +24654,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>198.5902886500596</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>279.8643344083839</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24691,10 +24691,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>181.1251564493168</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>78.09309857249688</v>
       </c>
       <c r="H31" t="n">
-        <v>62.98301134065734</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24891,7 +24891,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24928,10 +24928,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>181.1251564493168</v>
+        <v>296.3711723859685</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>60.71080631283638</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -25128,19 +25128,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>198.59028865006</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25168,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>181.1251564493159</v>
+        <v>317.0092794716264</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>15.72448058011122</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25362,22 +25362,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>141.2829290802056</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>116.9817111225209</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>97.95568926599702</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25605,19 +25605,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>197.6259927259852</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>160.3027978282313</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>292.3254924742274</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>181.1251564493168</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25794,13 +25794,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>44.54010860076366</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>50.18328106465123</v>
       </c>
     </row>
     <row r="44">
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25876,13 +25876,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>181.1251564493155</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>184.5154200272973</v>
       </c>
     </row>
     <row r="45">
@@ -26025,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26079,13 +26079,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>158.8733195558276</v>
+        <v>245.3403179225652</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>402256.5418769753</v>
+        <v>433263.0758337675</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>402256.5418769753</v>
+        <v>433263.0758337677</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>855506.5411587491</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>855506.5411587491</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587488</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.5411587491</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587491</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.5411587488</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>139242.6491112605</v>
+        <v>149975.680096304</v>
       </c>
       <c r="C2" t="n">
-        <v>139242.6491112606</v>
+        <v>149975.680096304</v>
       </c>
       <c r="D2" t="n">
         <v>149975.680096304</v>
@@ -26325,37 +26325,37 @@
         <v>296136.8796318746</v>
       </c>
       <c r="F2" t="n">
+        <v>296136.8796318747</v>
+      </c>
+      <c r="G2" t="n">
         <v>296136.8796318746</v>
-      </c>
-      <c r="G2" t="n">
-        <v>296136.8796318747</v>
       </c>
       <c r="H2" t="n">
         <v>296136.8796318746</v>
       </c>
       <c r="I2" t="n">
-        <v>296136.8796318746</v>
+        <v>296136.8796318747</v>
       </c>
       <c r="J2" t="n">
-        <v>296136.8796318745</v>
+        <v>296136.8796318744</v>
       </c>
       <c r="K2" t="n">
         <v>296136.8796318744</v>
       </c>
       <c r="L2" t="n">
-        <v>296136.8796318746</v>
+        <v>296136.8796318745</v>
       </c>
       <c r="M2" t="n">
+        <v>296136.8796318747</v>
+      </c>
+      <c r="N2" t="n">
+        <v>296136.8796318745</v>
+      </c>
+      <c r="O2" t="n">
         <v>296136.8796318744</v>
       </c>
-      <c r="N2" t="n">
-        <v>296136.8796318746</v>
-      </c>
-      <c r="O2" t="n">
-        <v>296136.8796318747</v>
-      </c>
       <c r="P2" t="n">
-        <v>296136.8796318746</v>
+        <v>296136.8796318744</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>542655.4349751304</v>
+        <v>591356.9025208453</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>43803.80384074452</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.6436336677</v>
+        <v>627134.6436336678</v>
       </c>
       <c r="F3" t="n">
         <v>1.797263848857256e-10</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>38421.40650613414</v>
+        <v>49064.94472854453</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>10295.60674904871</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>160456.4418678775</v>
+        <v>160456.4418678774</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.1921479602628</v>
+        <v>137.8001180723339</v>
       </c>
       <c r="C4" t="n">
-        <v>107.1921479602628</v>
+        <v>137.8001180723339</v>
       </c>
       <c r="D4" t="n">
-        <v>137.800118072334</v>
+        <v>137.8001180723339</v>
       </c>
       <c r="E4" t="n">
         <v>584.6469890061231</v>
@@ -26435,7 +26435,7 @@
         <v>584.6469890061234</v>
       </c>
       <c r="H4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.6469890061232</v>
       </c>
       <c r="I4" t="n">
         <v>584.6469890061231</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>53719.1197790209</v>
+        <v>56985.80041161356</v>
       </c>
       <c r="C5" t="n">
-        <v>53719.1197790209</v>
+        <v>56985.80041161356</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161356</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
@@ -26487,19 +26487,19 @@
         <v>74306.34056139331</v>
       </c>
       <c r="H5" t="n">
+        <v>74306.34056139331</v>
+      </c>
+      <c r="I5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>74306.34056139328</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="K5" t="n">
-        <v>74306.34056139328</v>
-      </c>
       <c r="L5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-457239.097790851</v>
+        <v>-510698.8849732618</v>
       </c>
       <c r="C6" t="n">
-        <v>85416.3371842794</v>
+        <v>80658.01754758343</v>
       </c>
       <c r="D6" t="n">
-        <v>49048.27572587359</v>
+        <v>80658.01754758351</v>
       </c>
       <c r="E6" t="n">
-        <v>-405888.7515521926</v>
+        <v>-409962.7469303623</v>
       </c>
       <c r="F6" t="n">
-        <v>221245.892081475</v>
+        <v>217171.8967033055</v>
       </c>
       <c r="G6" t="n">
-        <v>221245.8920814753</v>
+        <v>217171.8967033056</v>
       </c>
       <c r="H6" t="n">
-        <v>221245.8920814753</v>
+        <v>217171.8967033056</v>
       </c>
       <c r="I6" t="n">
-        <v>221245.8920814751</v>
+        <v>217171.8967033058</v>
       </c>
       <c r="J6" t="n">
-        <v>182824.485575341</v>
+        <v>168106.9519747609</v>
       </c>
       <c r="K6" t="n">
-        <v>221245.892081475</v>
+        <v>217171.8967033054</v>
       </c>
       <c r="L6" t="n">
-        <v>210950.2853324264</v>
+        <v>217171.8967033055</v>
       </c>
       <c r="M6" t="n">
-        <v>60789.45021359751</v>
+        <v>56715.45483542824</v>
       </c>
       <c r="N6" t="n">
-        <v>221245.8920814751</v>
+        <v>217171.8967033055</v>
       </c>
       <c r="O6" t="n">
-        <v>221245.8920814752</v>
+        <v>217171.8967033053</v>
       </c>
       <c r="P6" t="n">
-        <v>221245.8920814751</v>
+        <v>217171.8967033054</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>512.0768631572208</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>512.0768631572208</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26755,7 +26755,7 @@
         <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.8461210887086</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>146.8461210887086</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="E4" t="n">
         <v>831.4014554022928</v>
@@ -26810,16 +26810,16 @@
         <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>831.4014554022928</v>
       </c>
-      <c r="K4" t="n">
-        <v>831.4014554022925</v>
-      </c>
       <c r="L4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022928</v>
@@ -26831,7 +26831,7 @@
         <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>512.0768631572208</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>36.39307775568375</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>541.3067596803937</v>
+        <v>541.3067596803938</v>
       </c>
       <c r="F3" t="n">
         <v>2.273736754432321e-13</v>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.8461210887086</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>40.67946607761124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>643.8758682359729</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>146.8461210887089</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>40.67946607761124</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359731</v>
+        <v>643.8758682359729</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>146.8461210887086</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>40.67946607761124</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>643.8758682359729</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.058600454903399</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H2" t="n">
-        <v>21.08264190877944</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I2" t="n">
-        <v>79.36419403766335</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J2" t="n">
-        <v>174.7211403593575</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>261.8616976154184</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L2" t="n">
-        <v>324.8625912871684</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M2" t="n">
-        <v>361.4722271270567</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N2" t="n">
-        <v>367.321225669551</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O2" t="n">
-        <v>346.8510173961053</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P2" t="n">
-        <v>296.0293186656776</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>222.3056898744496</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>129.3135608253257</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>46.91035786611125</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T2" t="n">
-        <v>9.011523491339632</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1646880363922719</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.101448347168362</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>10.63767219502076</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>37.92267335645457</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
-        <v>104.0627142383934</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>177.8597534986736</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L3" t="n">
-        <v>239.1543878358323</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>279.0818904206853</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>238.7894450985626</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O3" t="n">
-        <v>262.0625810914128</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>210.3283251711234</v>
+        <v>225.2762668628871</v>
       </c>
       <c r="Q3" t="n">
-        <v>140.5989153332807</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>68.38641580050586</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S3" t="n">
-        <v>20.45891995727197</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.439609785297035</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07246370705055015</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9234172942179391</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H4" t="n">
-        <v>8.210019215864955</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I4" t="n">
-        <v>27.76967644793585</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J4" t="n">
-        <v>65.28560270120829</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K4" t="n">
-        <v>107.2843001827751</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>137.2869675421834</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M4" t="n">
-        <v>144.7498582199993</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>141.3080301233689</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O4" t="n">
-        <v>130.5208371863684</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>111.6831243843223</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>77.32360633674034</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R4" t="n">
-        <v>41.52019942910842</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S4" t="n">
-        <v>16.09264502741626</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>3.945510257113011</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05036821604825128</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.058600454903399</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H5" t="n">
-        <v>21.08264190877944</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I5" t="n">
-        <v>79.36419403766335</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J5" t="n">
-        <v>174.7211403593575</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K5" t="n">
-        <v>261.8616976154184</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L5" t="n">
-        <v>324.8625912871684</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M5" t="n">
-        <v>361.4722271270567</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N5" t="n">
-        <v>367.321225669551</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O5" t="n">
-        <v>346.8510173961053</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P5" t="n">
-        <v>296.0293186656776</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q5" t="n">
-        <v>222.3056898744496</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R5" t="n">
-        <v>129.3135608253257</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S5" t="n">
-        <v>46.91035786611125</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T5" t="n">
-        <v>9.011523491339632</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1646880363922719</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.101448347168362</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H6" t="n">
-        <v>10.63767219502076</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I6" t="n">
-        <v>37.92267335645457</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J6" t="n">
-        <v>104.0627142383934</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K6" t="n">
-        <v>138.4613654251943</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L6" t="n">
-        <v>239.1543878358323</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M6" t="n">
-        <v>279.0818904206853</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N6" t="n">
-        <v>278.1878331720419</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O6" t="n">
-        <v>262.0625810914128</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P6" t="n">
-        <v>210.3283251711234</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q6" t="n">
-        <v>140.5989153332807</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R6" t="n">
-        <v>68.38641580050586</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S6" t="n">
-        <v>20.45891995727197</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T6" t="n">
-        <v>4.439609785297035</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07246370705055015</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9234172942179391</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H7" t="n">
-        <v>8.210019215864955</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I7" t="n">
-        <v>27.76967644793585</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J7" t="n">
-        <v>65.28560270120829</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K7" t="n">
-        <v>107.2843001827751</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L7" t="n">
-        <v>137.2869675421834</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M7" t="n">
-        <v>144.7498582199993</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N7" t="n">
-        <v>141.3080301233689</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O7" t="n">
-        <v>130.5208371863684</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P7" t="n">
-        <v>111.6831243843223</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q7" t="n">
-        <v>77.32360633674034</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R7" t="n">
-        <v>41.52019942910842</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S7" t="n">
-        <v>16.09264502741626</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T7" t="n">
-        <v>3.945510257113011</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05036821604825128</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,31 +31515,31 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J8" t="n">
         <v>187.1384950655543</v>
       </c>
       <c r="K8" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O8" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P8" t="n">
         <v>317.0679923244294</v>
@@ -31551,10 +31551,10 @@
         <v>138.5038187974683</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U8" t="n">
         <v>0.1763923428061601</v>
@@ -31597,7 +31597,7 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I9" t="n">
         <v>40.6178210959085</v>
@@ -31606,7 +31606,7 @@
         <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L9" t="n">
         <v>256.1509851405032</v>
@@ -31615,7 +31615,7 @@
         <v>298.9161177975329</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O9" t="n">
         <v>280.6872536292673</v>
@@ -31624,19 +31624,19 @@
         <v>225.2762668628872</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S9" t="n">
         <v>21.9129264128882</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I10" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K10" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L10" t="n">
-        <v>147.0438920276991</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N10" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O10" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P10" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R10" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T10" t="n">
         <v>4.225915938181394</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32472,40 +32472,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356356</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026431</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32624,43 +32624,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33976,7 +33976,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138796</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K2" t="n">
-        <v>41.77184657043784</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L2" t="n">
-        <v>89.09617631718112</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M2" t="n">
-        <v>131.1259938997839</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N2" t="n">
-        <v>137.9081620729601</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O2" t="n">
-        <v>116.7528059744186</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P2" t="n">
-        <v>64.79632291040804</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>40.0183145243146</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L3" t="n">
-        <v>100.6000080559581</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>136.947856498667</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>107.4477330152293</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O3" t="n">
-        <v>119.4663366469684</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P3" t="n">
-        <v>76.35391775679318</v>
+        <v>91.30185944855687</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.6171412472592124</v>
+        <v>10.60944440764993</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>2.402291260945162</v>
+        <v>12.15921574646075</v>
       </c>
       <c r="M4" t="n">
-        <v>5.824074272394228</v>
+        <v>16.11138312061149</v>
       </c>
       <c r="N4" t="n">
-        <v>13.6224856581357</v>
+        <v>23.66518529520823</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.340357307400495</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K5" t="n">
-        <v>41.77184657043784</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L5" t="n">
-        <v>89.09617631718112</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M5" t="n">
-        <v>131.1259938997839</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N5" t="n">
-        <v>137.9081620729601</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O5" t="n">
-        <v>116.7528059744186</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P5" t="n">
-        <v>64.79632291040804</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6199264508352701</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L6" t="n">
-        <v>100.6000080559581</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M6" t="n">
-        <v>136.947856498667</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N6" t="n">
-        <v>146.8461210887086</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O6" t="n">
-        <v>119.4663366469684</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P6" t="n">
-        <v>76.35391775679318</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.6171412472592124</v>
+        <v>10.60944440764993</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>2.402291260945162</v>
+        <v>12.15921574646075</v>
       </c>
       <c r="M7" t="n">
-        <v>5.824074272394228</v>
+        <v>16.11138312061149</v>
       </c>
       <c r="N7" t="n">
-        <v>13.6224856581357</v>
+        <v>23.66518529520823</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.340357307400495</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L8" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P8" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.79916774065975</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L9" t="n">
         <v>117.596605360629</v>
@@ -35263,16 +35263,16 @@
         <v>156.7820838755146</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4858258996321</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O9" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P9" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764993</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,16 +35336,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>12.15921574646077</v>
+        <v>12.15921574646075</v>
       </c>
       <c r="M10" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061149</v>
       </c>
       <c r="N10" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520823</v>
       </c>
       <c r="O10" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400495</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222388</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597635</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K22" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L22" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M22" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N22" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O22" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P22" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340054</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>399383.5293367549</v>
+        <v>450275.6437737594</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8547013.059513925</v>
+        <v>8636206.831769027</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8673692.685730744</v>
+        <v>8627903.240604855</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>43.07008646612837</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="E2" t="n">
-        <v>165.1725371760945</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>86.27197698880633</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265842</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -791,22 +791,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>129.3420634549347</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663198</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>149.7933161434361</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>52.21594625443423</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>21.41405905276496</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>116.8405921356974</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>77.08171901666381</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>146.9019614358876</v>
       </c>
       <c r="W5" t="n">
-        <v>187.5255871663198</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>156.288550727276</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1028,10 +1028,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>34.92041296071469</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>36.43383855780544</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>52.21594625443431</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U8" t="n">
-        <v>187.5255871663198</v>
+        <v>6.396723986041487</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y8" t="n">
-        <v>165.1725371760945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,22 +1211,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>48.91300193716754</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265842</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>72.43289562846321</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>149.7933161434361</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="10">
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>52.21594625443431</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,25 +1372,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>315.5101355655713</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>334.562205224615</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851095</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1587,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>239.3348485454004</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>100.1807332411791</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>10.89095412311097</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>275.1428043778306</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247811</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1776,10 +1776,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1824,16 +1824,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>239.3348485454009</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>45.67405313867427</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>136.0033847775997</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1861,10 +1861,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1909,10 +1909,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>20.7802394535703</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851184</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824774</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2010,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2061,16 +2061,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>61.68477698654738</v>
+        <v>217.9285125324357</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2086,22 +2086,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>318.5653654366749</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>101.8907566840634</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>161.7494508087917</v>
+        <v>58.28185552386356</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2298,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,19 +2320,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>16.348254743886</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>84.31954727926096</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>20.95866062610972</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>58.28185552386351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2569,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>333.8863513013256</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2620,10 +2620,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>125.4135346272742</v>
       </c>
     </row>
     <row r="27">
@@ -2687,7 +2687,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T27" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7165703189229</v>
       </c>
       <c r="U27" t="n">
         <v>225.7871683969286</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>72.08802744677259</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>125.0663096025708</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>102.8695072550966</v>
+        <v>306.7874773947171</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2958,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>87.93270968653134</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>82.28953722264384</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3043,10 +3043,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>114.550553267485</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>14.31259208839253</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>106.5360147857915</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>20.95866062610961</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,19 +3240,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3274,13 +3274,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>93.91244618182704</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>273.9374203512039</v>
       </c>
     </row>
     <row r="36">
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3477,19 +3477,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>185.8117075282595</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>145.2400692563854</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3511,16 +3511,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>264.9486589497409</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3565,13 +3565,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>77.9773651578025</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>20.95866062610969</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>58.28185552386351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>90.40834918925317</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>114.5505532674841</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>105.8466203508808</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>168.4013722874436</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,22 +3979,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>201.7225186287563</v>
+        <v>106.1117155756193</v>
       </c>
     </row>
     <row r="45">
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4149,7 +4149,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>40.87152028304765</v>
+        <v>118.8376584678377</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>560.6825636487946</v>
+        <v>456.7359354104568</v>
       </c>
       <c r="C2" t="n">
-        <v>560.6825636487946</v>
+        <v>308.4065201693368</v>
       </c>
       <c r="D2" t="n">
-        <v>560.6825636487946</v>
+        <v>160.0771049282168</v>
       </c>
       <c r="E2" t="n">
-        <v>393.8416170062749</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897903</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678466</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058893</v>
+        <v>53.1018177918304</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079178</v>
+        <v>141.3070323458399</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644747</v>
+        <v>271.1217663066261</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123821</v>
+        <v>407.6508467588566</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985577</v>
+        <v>523.2361246735312</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020262</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652792</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652792</v>
+        <v>500.2410732550309</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652792</v>
+        <v>500.2410732550309</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652792</v>
+        <v>500.2410732550309</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652792</v>
+        <v>500.2410732550309</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652792</v>
+        <v>500.2410732550309</v>
       </c>
       <c r="W2" t="n">
-        <v>750.1023486652792</v>
+        <v>500.2410732550309</v>
       </c>
       <c r="X2" t="n">
-        <v>560.6825636487946</v>
+        <v>500.2410732550309</v>
       </c>
       <c r="Y2" t="n">
-        <v>560.6825636487946</v>
+        <v>500.2410732550309</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.53661367296056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="C3" t="n">
-        <v>30.53661367296056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="D3" t="n">
-        <v>30.53661367296056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="E3" t="n">
-        <v>30.53661367296056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="F3" t="n">
-        <v>30.53661367296056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="G3" t="n">
-        <v>30.53661367296056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="H3" t="n">
-        <v>30.53661367296056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>12.36141687342364</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772648</v>
+        <v>111.9554248488222</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140241</v>
+        <v>247.5338027825027</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546599</v>
+        <v>392.9114626603244</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476345</v>
+        <v>511.1831359408233</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017058</v>
+        <v>586.7735145200486</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652792</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652792</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652792</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652792</v>
+        <v>456.7359354104568</v>
       </c>
       <c r="U3" t="n">
-        <v>560.6825636487946</v>
+        <v>308.4065201693368</v>
       </c>
       <c r="V3" t="n">
-        <v>560.6825636487946</v>
+        <v>160.0771049282168</v>
       </c>
       <c r="W3" t="n">
-        <v>371.26277863231</v>
+        <v>160.0771049282168</v>
       </c>
       <c r="X3" t="n">
-        <v>219.9563986894452</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="Y3" t="n">
-        <v>30.53661367296056</v>
+        <v>11.74768968709671</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>750.1023486652792</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="C4" t="n">
-        <v>750.1023486652792</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="D4" t="n">
-        <v>750.1023486652792</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="E4" t="n">
-        <v>750.1023486652792</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="F4" t="n">
-        <v>697.3589686102952</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="G4" t="n">
-        <v>697.3589686102952</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="H4" t="n">
-        <v>697.3589686102952</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="I4" t="n">
-        <v>697.3589686102952</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="J4" t="n">
-        <v>697.3589686102952</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="K4" t="n">
-        <v>697.3589686102952</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="L4" t="n">
-        <v>709.3965921992913</v>
+        <v>14.12595803543247</v>
       </c>
       <c r="M4" t="n">
-        <v>725.3468614886966</v>
+        <v>19.89179156510284</v>
       </c>
       <c r="N4" t="n">
-        <v>748.7753949309528</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="O4" t="n">
-        <v>750.1023486652792</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652792</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652792</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="R4" t="n">
-        <v>750.1023486652792</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="S4" t="n">
-        <v>750.1023486652792</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="T4" t="n">
-        <v>750.1023486652792</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="U4" t="n">
-        <v>750.1023486652792</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="V4" t="n">
-        <v>750.1023486652792</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="W4" t="n">
-        <v>750.1023486652792</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="X4" t="n">
-        <v>750.1023486652792</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="Y4" t="n">
-        <v>750.1023486652792</v>
+        <v>33.37805236665727</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>322.4426321268584</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="C5" t="n">
-        <v>133.0228471103737</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="D5" t="n">
-        <v>133.0228471103737</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="E5" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="F5" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="G5" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H5" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I5" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678489</v>
+        <v>13.34259413586626</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058962</v>
+        <v>64.0811123818437</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079184</v>
+        <v>163.9284927306054</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644754</v>
+        <v>306.6973793432479</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123826</v>
+        <v>456.3902241803914</v>
       </c>
       <c r="O5" t="n">
-        <v>649.484525998558</v>
+        <v>584.4056715233287</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020262</v>
+        <v>659.1628932295215</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652792</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="R5" t="n">
-        <v>672.2420264262249</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="S5" t="n">
-        <v>511.862417143343</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="T5" t="n">
-        <v>511.862417143343</v>
+        <v>498.6626091182343</v>
       </c>
       <c r="U5" t="n">
-        <v>511.862417143343</v>
+        <v>330.1955114431552</v>
       </c>
       <c r="V5" t="n">
-        <v>511.862417143343</v>
+        <v>181.8096918109454</v>
       </c>
       <c r="W5" t="n">
-        <v>322.4426321268584</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="X5" t="n">
-        <v>322.4426321268584</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="Y5" t="n">
-        <v>322.4426321268584</v>
+        <v>13.34259413586627</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>335.9896342275476</v>
+        <v>330.4472720981663</v>
       </c>
       <c r="C6" t="n">
-        <v>161.5366049464206</v>
+        <v>172.5800491413218</v>
       </c>
       <c r="D6" t="n">
-        <v>161.5366049464206</v>
+        <v>172.5800491413218</v>
       </c>
       <c r="E6" t="n">
-        <v>161.5366049464206</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="F6" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="G6" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H6" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I6" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J6" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024208</v>
+        <v>59.33472114872539</v>
       </c>
       <c r="L6" t="n">
-        <v>183.5548280772648</v>
+        <v>167.4993528536689</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140241</v>
+        <v>286.8472429682663</v>
       </c>
       <c r="N6" t="n">
-        <v>512.50005875466</v>
+        <v>450.6888460033936</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476345</v>
+        <v>578.3521085265269</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017058</v>
+        <v>661.4800654500998</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652792</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="R6" t="n">
-        <v>750.1023486652792</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="S6" t="n">
-        <v>750.1023486652792</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="T6" t="n">
-        <v>560.6825636487946</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="U6" t="n">
-        <v>560.6825636487946</v>
+        <v>498.6626091182343</v>
       </c>
       <c r="V6" t="n">
-        <v>560.6825636487946</v>
+        <v>498.6626091182343</v>
       </c>
       <c r="W6" t="n">
-        <v>560.6825636487946</v>
+        <v>498.6626091182343</v>
       </c>
       <c r="X6" t="n">
-        <v>525.4094192440323</v>
+        <v>498.6626091182343</v>
       </c>
       <c r="Y6" t="n">
-        <v>335.9896342275476</v>
+        <v>498.6626091182343</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="C7" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="D7" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="E7" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="F7" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="G7" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H7" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I7" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J7" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="K7" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="L7" t="n">
-        <v>27.03967056230172</v>
+        <v>20.64084305584014</v>
       </c>
       <c r="M7" t="n">
-        <v>42.9899398517071</v>
+        <v>31.59410626612414</v>
       </c>
       <c r="N7" t="n">
-        <v>66.41847329396325</v>
+        <v>50.14445126496267</v>
       </c>
       <c r="O7" t="n">
-        <v>67.74542702828974</v>
+        <v>50.14445126496267</v>
       </c>
       <c r="P7" t="n">
-        <v>67.74542702828974</v>
+        <v>50.14445126496267</v>
       </c>
       <c r="Q7" t="n">
-        <v>67.74542702828974</v>
+        <v>50.14445126496267</v>
       </c>
       <c r="R7" t="n">
-        <v>67.74542702828974</v>
+        <v>50.14445126496267</v>
       </c>
       <c r="S7" t="n">
-        <v>67.74542702828974</v>
+        <v>50.14445126496267</v>
       </c>
       <c r="T7" t="n">
-        <v>67.74542702828974</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="U7" t="n">
-        <v>67.74542702828974</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="V7" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="W7" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="X7" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>204.4218319897903</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C8" t="n">
-        <v>204.4218319897903</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D8" t="n">
-        <v>204.4218319897903</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E8" t="n">
-        <v>204.4218319897903</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F8" t="n">
-        <v>204.4218319897903</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G8" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H8" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I8" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058933</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L8" t="n">
         <v>191.8743094079184</v>
@@ -4816,40 +4816,40 @@
         <v>347.1218190644753</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985578</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020262</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R8" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S8" t="n">
-        <v>750.1023486652792</v>
+        <v>589.7227393823979</v>
       </c>
       <c r="T8" t="n">
-        <v>560.6825636487946</v>
+        <v>400.3029543659131</v>
       </c>
       <c r="U8" t="n">
-        <v>371.26277863231</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="V8" t="n">
-        <v>371.26277863231</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="W8" t="n">
-        <v>371.26277863231</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="X8" t="n">
-        <v>371.26277863231</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y8" t="n">
-        <v>204.4218319897903</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>476.2476595172182</v>
+        <v>30.53661367296054</v>
       </c>
       <c r="C9" t="n">
-        <v>476.2476595172182</v>
+        <v>30.53661367296054</v>
       </c>
       <c r="D9" t="n">
-        <v>327.3132498559669</v>
+        <v>30.53661367296054</v>
       </c>
       <c r="E9" t="n">
-        <v>168.0757948505114</v>
+        <v>30.53661367296054</v>
       </c>
       <c r="F9" t="n">
-        <v>168.0757948505114</v>
+        <v>30.53661367296054</v>
       </c>
       <c r="G9" t="n">
-        <v>30.53661367296056</v>
+        <v>30.53661367296054</v>
       </c>
       <c r="H9" t="n">
-        <v>30.53661367296056</v>
+        <v>30.53661367296054</v>
       </c>
       <c r="I9" t="n">
-        <v>30.53661367296056</v>
+        <v>30.53661367296054</v>
       </c>
       <c r="J9" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024242</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772648</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140241</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546599</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476345</v>
+        <v>649.2101578476351</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017058</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R9" t="n">
-        <v>676.9378076264275</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S9" t="n">
-        <v>525.6547321810237</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T9" t="n">
-        <v>525.6547321810237</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="U9" t="n">
-        <v>525.6547321810237</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="V9" t="n">
-        <v>525.6547321810237</v>
+        <v>409.3761837059301</v>
       </c>
       <c r="W9" t="n">
-        <v>525.6547321810237</v>
+        <v>409.3761837059301</v>
       </c>
       <c r="X9" t="n">
-        <v>525.6547321810237</v>
+        <v>219.9563986894453</v>
       </c>
       <c r="Y9" t="n">
-        <v>525.6547321810237</v>
+        <v>30.53661367296054</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>67.74542702828974</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C10" t="n">
-        <v>67.74542702828974</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D10" t="n">
-        <v>67.74542702828974</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E10" t="n">
-        <v>67.74542702828974</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L10" t="n">
-        <v>27.03967056230172</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M10" t="n">
-        <v>42.9899398517071</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N10" t="n">
-        <v>66.41847329396325</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O10" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P10" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q10" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R10" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S10" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T10" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U10" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V10" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W10" t="n">
-        <v>67.74542702828974</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X10" t="n">
-        <v>67.74542702828974</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y10" t="n">
-        <v>67.74542702828974</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1844.338003964587</v>
+        <v>1879.82957821044</v>
       </c>
       <c r="C11" t="n">
-        <v>1475.375487024175</v>
+        <v>1561.13247157855</v>
       </c>
       <c r="D11" t="n">
-        <v>1117.109788417425</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E11" t="n">
-        <v>1117.109788417425</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F11" t="n">
-        <v>779.1681669784198</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
@@ -5068,25 +5068,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V11" t="n">
-        <v>2994.5429342656</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W11" t="n">
-        <v>2994.5429342656</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X11" t="n">
-        <v>2621.07717600452</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="Y11" t="n">
-        <v>2230.937844028709</v>
+        <v>2266.429418274562</v>
       </c>
     </row>
     <row r="12">
@@ -5114,7 +5114,7 @@
         <v>176.0213023927777</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>679.1346335501037</v>
+        <v>383.3613929424835</v>
       </c>
       <c r="C13" t="n">
-        <v>679.1346335501037</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D13" t="n">
-        <v>529.0179941377679</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E13" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F13" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
         <v>66.51211643218342</v>
@@ -5235,16 +5235,16 @@
         <v>920.8870058181849</v>
       </c>
       <c r="V13" t="n">
-        <v>679.1346335501037</v>
+        <v>666.202517612298</v>
       </c>
       <c r="W13" t="n">
-        <v>679.1346335501037</v>
+        <v>565.0098577727232</v>
       </c>
       <c r="X13" t="n">
-        <v>679.1346335501037</v>
+        <v>565.0098577727232</v>
       </c>
       <c r="Y13" t="n">
-        <v>679.1346335501037</v>
+        <v>565.0098577727232</v>
       </c>
     </row>
     <row r="14">
@@ -5254,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1594.601034732593</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C14" t="n">
-        <v>1225.638517792182</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D14" t="n">
-        <v>867.3728191854311</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E14" t="n">
-        <v>481.5845665871869</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F14" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5308,22 +5308,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V14" t="n">
-        <v>2755.806928794324</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W14" t="n">
-        <v>2744.805965033606</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X14" t="n">
-        <v>2371.340206772526</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="Y14" t="n">
-        <v>1981.200874796715</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="15">
@@ -5333,70 +5333,70 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
         <v>1317.519490266131</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>679.1346335501037</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="C16" t="n">
-        <v>679.1346335501037</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D16" t="n">
-        <v>529.0179941377679</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E16" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F16" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K16" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O16" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R16" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S16" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T16" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U16" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V16" t="n">
-        <v>679.1346335501037</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W16" t="n">
-        <v>679.1346335501037</v>
+        <v>631.4698357812244</v>
       </c>
       <c r="X16" t="n">
-        <v>679.1346335501037</v>
+        <v>585.3344285704424</v>
       </c>
       <c r="Y16" t="n">
-        <v>679.1346335501037</v>
+        <v>364.5418494269123</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1698.50962791956</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C17" t="n">
-        <v>1561.13247157855</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D17" t="n">
-        <v>1202.866772971799</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E17" t="n">
-        <v>817.078520373555</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F17" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450754</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.975386180639</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X17" t="n">
-        <v>1698.50962791956</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y17" t="n">
-        <v>1698.50962791956</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D18" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>382.1280466398576</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C19" t="n">
-        <v>382.1280466398576</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D19" t="n">
-        <v>382.1280466398576</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E19" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F19" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K19" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L19" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O19" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R19" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S19" t="n">
-        <v>920.8870058181855</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="T19" t="n">
-        <v>699.1203903877115</v>
+        <v>507.4345062145375</v>
       </c>
       <c r="U19" t="n">
-        <v>699.1203903877115</v>
+        <v>507.4345062145375</v>
       </c>
       <c r="V19" t="n">
-        <v>444.4359021818246</v>
+        <v>507.4345062145375</v>
       </c>
       <c r="W19" t="n">
-        <v>382.1280466398576</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="X19" t="n">
-        <v>382.1280466398576</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y19" t="n">
-        <v>382.1280466398576</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="20">
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1278.358723975039</v>
+        <v>1501.213961756484</v>
       </c>
       <c r="C20" t="n">
-        <v>1278.358723975039</v>
+        <v>1501.213961756484</v>
       </c>
       <c r="D20" t="n">
-        <v>1278.358723975039</v>
+        <v>1142.948263149734</v>
       </c>
       <c r="E20" t="n">
-        <v>892.5704713767946</v>
+        <v>1142.948263149734</v>
       </c>
       <c r="F20" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
@@ -5785,19 +5785,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U20" t="n">
-        <v>3112.395196889737</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V20" t="n">
-        <v>2781.332309546166</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W20" t="n">
-        <v>2428.563654276052</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X20" t="n">
-        <v>2055.097896014972</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y20" t="n">
-        <v>1664.958564039161</v>
+        <v>1887.813801820606</v>
       </c>
     </row>
     <row r="21">
@@ -5822,22 +5822,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031473</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>376.785347575338</v>
+        <v>739.2385409879453</v>
       </c>
       <c r="C22" t="n">
-        <v>376.785347575338</v>
+        <v>570.3023580600384</v>
       </c>
       <c r="D22" t="n">
-        <v>376.785347575338</v>
+        <v>420.1857186477026</v>
       </c>
       <c r="E22" t="n">
-        <v>376.785347575338</v>
+        <v>272.2726250653095</v>
       </c>
       <c r="F22" t="n">
-        <v>229.8954000774276</v>
+        <v>125.3826775673992</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K22" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L22" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M22" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N22" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O22" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P22" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q22" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R22" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S22" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T22" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U22" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V22" t="n">
-        <v>666.2025176122986</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W22" t="n">
-        <v>376.785347575338</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X22" t="n">
-        <v>376.785347575338</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y22" t="n">
-        <v>376.785347575338</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1238.038871968309</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C23" t="n">
-        <v>869.0763550278973</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D23" t="n">
-        <v>510.8106564211468</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E23" t="n">
-        <v>125.0224038229026</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F23" t="n">
-        <v>108.5090151927147</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G23" t="n">
         <v>108.5090151927147</v>
@@ -5986,13 +5986,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329465</v>
@@ -6001,16 +6001,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
@@ -6019,22 +6019,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U23" t="n">
-        <v>3072.075344883007</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V23" t="n">
-        <v>2741.012457539437</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W23" t="n">
-        <v>2388.243802269322</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X23" t="n">
-        <v>2014.778044008242</v>
+        <v>2097.094794775503</v>
       </c>
       <c r="Y23" t="n">
-        <v>1624.638712032431</v>
+        <v>1706.955462799692</v>
       </c>
     </row>
     <row r="24">
@@ -6044,31 +6044,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>680.3679798527295</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C25" t="n">
-        <v>511.4317969248226</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D25" t="n">
-        <v>361.3151575124869</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E25" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K25" t="n">
         <v>176.6457242372933</v>
@@ -6156,43 +6156,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M25" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N25" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O25" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P25" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q25" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R25" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S25" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T25" t="n">
-        <v>920.8870058181849</v>
+        <v>899.7166415493873</v>
       </c>
       <c r="U25" t="n">
-        <v>920.8870058181849</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V25" t="n">
-        <v>920.8870058181849</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W25" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="X25" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y25" t="n">
-        <v>862.0164446829692</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1611.504630229388</v>
+        <v>1571.829289912211</v>
       </c>
       <c r="C26" t="n">
-        <v>1242.542113288976</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="D26" t="n">
-        <v>1242.542113288976</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E26" t="n">
-        <v>856.7538606907319</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F26" t="n">
-        <v>445.7679559011244</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G26" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H26" t="n">
         <v>108.5090151927147</v>
@@ -6232,10 +6232,10 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
         <v>2120.555556060171</v>
@@ -6253,25 +6253,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U26" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V26" t="n">
-        <v>2741.012457539436</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W26" t="n">
-        <v>2388.243802269321</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X26" t="n">
-        <v>2388.243802269321</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y26" t="n">
-        <v>1998.10447029351</v>
+        <v>1571.829289912211</v>
       </c>
     </row>
     <row r="27">
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>848.0708164780106</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="C28" t="n">
-        <v>679.1346335501037</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D28" t="n">
-        <v>529.0179941377679</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E28" t="n">
         <v>381.1049005553748</v>
@@ -6411,25 +6411,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S28" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T28" t="n">
-        <v>920.8870058181849</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="U28" t="n">
-        <v>920.8870058181849</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="V28" t="n">
-        <v>920.8870058181849</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="W28" t="n">
-        <v>920.8870058181849</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="X28" t="n">
-        <v>920.8870058181849</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="Y28" t="n">
-        <v>920.8870058181849</v>
+        <v>381.1049005553748</v>
       </c>
     </row>
     <row r="29">
@@ -6454,19 +6454,19 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329465</v>
@@ -6475,16 +6475,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R29" t="n">
         <v>3325.605821609171</v>
@@ -6493,22 +6493,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U29" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V29" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W29" t="n">
-        <v>2071.975386180639</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X29" t="n">
-        <v>1698.50962791956</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y29" t="n">
-        <v>1698.50962791956</v>
+        <v>1904.487375535338</v>
       </c>
     </row>
     <row r="30">
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I30" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="31">
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.3330353074676</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="C31" t="n">
-        <v>155.3330353074676</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="D31" t="n">
-        <v>155.3330353074676</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E31" t="n">
-        <v>155.3330353074676</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F31" t="n">
-        <v>155.3330353074676</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K31" t="n">
         <v>176.6457242372933</v>
@@ -6630,43 +6630,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M31" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N31" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O31" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P31" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q31" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R31" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S31" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T31" t="n">
-        <v>699.1203903877109</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U31" t="n">
-        <v>410.0175235133545</v>
+        <v>615.9996457183738</v>
       </c>
       <c r="V31" t="n">
-        <v>155.3330353074676</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="W31" t="n">
-        <v>155.3330353074676</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="X31" t="n">
-        <v>155.3330353074676</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="Y31" t="n">
-        <v>155.3330353074676</v>
+        <v>361.3151575124869</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1295.236214140706</v>
+        <v>1477.112184968822</v>
       </c>
       <c r="C32" t="n">
-        <v>926.2736972002942</v>
+        <v>1108.149668028411</v>
       </c>
       <c r="D32" t="n">
-        <v>568.0079985935438</v>
+        <v>749.8839694216604</v>
       </c>
       <c r="E32" t="n">
-        <v>182.2197459952995</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F32" t="n">
-        <v>182.2197459952995</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G32" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
         <v>2120.555556060171</v>
@@ -6724,28 +6724,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U32" t="n">
-        <v>2755.806928794324</v>
+        <v>3311.148657883521</v>
       </c>
       <c r="V32" t="n">
-        <v>2424.744041450754</v>
+        <v>2980.08577053995</v>
       </c>
       <c r="W32" t="n">
-        <v>2071.975386180639</v>
+        <v>2627.317115269836</v>
       </c>
       <c r="X32" t="n">
-        <v>2071.975386180639</v>
+        <v>2253.851357008756</v>
       </c>
       <c r="Y32" t="n">
-        <v>1681.836054204828</v>
+        <v>1863.712025032944</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
@@ -6812,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6821,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>471.1308394896936</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="C34" t="n">
-        <v>363.5187033424295</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="D34" t="n">
-        <v>213.4020639300938</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="E34" t="n">
-        <v>213.4020639300938</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="F34" t="n">
-        <v>66.51211643218342</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="G34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J34" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K34" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L34" t="n">
         <v>332.3555681596505</v>
@@ -6888,22 +6888,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T34" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U34" t="n">
-        <v>699.1203903877109</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V34" t="n">
-        <v>699.1203903877109</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W34" t="n">
-        <v>699.1203903877109</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="X34" t="n">
-        <v>471.1308394896936</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="Y34" t="n">
-        <v>471.1308394896936</v>
+        <v>87.68248070098099</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1685.375546116518</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C35" t="n">
-        <v>1316.413029176106</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D35" t="n">
-        <v>958.1473305693555</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E35" t="n">
-        <v>572.3590779711112</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F35" t="n">
-        <v>161.3731731815037</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
@@ -6967,22 +6967,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V35" t="n">
-        <v>2424.744041450754</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W35" t="n">
-        <v>2071.975386180639</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X35" t="n">
-        <v>2071.975386180639</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y35" t="n">
-        <v>2071.975386180639</v>
+        <v>2006.398526988078</v>
       </c>
     </row>
     <row r="36">
@@ -7007,22 +7007,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>364.5418494269122</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C37" t="n">
-        <v>364.5418494269122</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D37" t="n">
-        <v>214.4252100145765</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E37" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K37" t="n">
         <v>176.6457242372933</v>
@@ -7104,43 +7104,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M37" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N37" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O37" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P37" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q37" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R37" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S37" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T37" t="n">
-        <v>920.8870058181849</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U37" t="n">
-        <v>920.8870058181849</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="V37" t="n">
-        <v>920.8870058181849</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="W37" t="n">
-        <v>774.1798651551693</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="X37" t="n">
-        <v>546.190314257152</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="Y37" t="n">
-        <v>546.190314257152</v>
+        <v>511.4317969248226</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1514.348043559526</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C38" t="n">
-        <v>1145.385526619114</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D38" t="n">
-        <v>787.1198280123635</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E38" t="n">
-        <v>519.4949199823222</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F38" t="n">
-        <v>108.5090151927147</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G38" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H38" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
@@ -7204,22 +7204,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U38" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V38" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W38" t="n">
-        <v>2277.953133796417</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X38" t="n">
-        <v>1904.487375535337</v>
+        <v>2345.979026139843</v>
       </c>
       <c r="Y38" t="n">
-        <v>1514.348043559526</v>
+        <v>2345.979026139843</v>
       </c>
     </row>
     <row r="39">
@@ -7244,16 +7244,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>680.3679798527295</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="C40" t="n">
-        <v>511.4317969248226</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="D40" t="n">
-        <v>361.3151575124869</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="E40" t="n">
-        <v>213.4020639300938</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218342</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K40" t="n">
         <v>176.6457242372933</v>
@@ -7341,43 +7341,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M40" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N40" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O40" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P40" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q40" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R40" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S40" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T40" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U40" t="n">
-        <v>920.8870058181849</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="V40" t="n">
-        <v>920.8870058181849</v>
+        <v>377.0996507379417</v>
       </c>
       <c r="W40" t="n">
-        <v>920.8870058181849</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="X40" t="n">
-        <v>920.8870058181849</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="Y40" t="n">
-        <v>862.0164446829692</v>
+        <v>87.6824807009811</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1590.514489367197</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="C41" t="n">
-        <v>1221.551972426786</v>
+        <v>926.2736972002933</v>
       </c>
       <c r="D41" t="n">
-        <v>863.2862738200351</v>
+        <v>568.0079985935429</v>
       </c>
       <c r="E41" t="n">
-        <v>477.498021221791</v>
+        <v>182.2197459952986</v>
       </c>
       <c r="F41" t="n">
         <v>66.5121164321834</v>
@@ -7414,7 +7414,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>529.0179941377679</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="C43" t="n">
-        <v>529.0179941377679</v>
+        <v>470.4344814746323</v>
       </c>
       <c r="D43" t="n">
-        <v>529.0179941377679</v>
+        <v>320.3178420622966</v>
       </c>
       <c r="E43" t="n">
-        <v>381.1049005553748</v>
+        <v>320.3178420622966</v>
       </c>
       <c r="F43" t="n">
-        <v>234.2149530574644</v>
+        <v>173.4278945643862</v>
       </c>
       <c r="G43" t="n">
         <v>66.5121164321834</v>
@@ -7593,28 +7593,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R43" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S43" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T43" t="n">
-        <v>699.1203903877109</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="U43" t="n">
-        <v>699.1203903877109</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="V43" t="n">
-        <v>699.1203903877109</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="W43" t="n">
-        <v>699.1203903877109</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="X43" t="n">
-        <v>699.1203903877109</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="Y43" t="n">
-        <v>529.0179941377679</v>
+        <v>639.3706644025392</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1108.149668028411</v>
+        <v>1204.726236768953</v>
       </c>
       <c r="C44" t="n">
-        <v>1108.149668028411</v>
+        <v>835.7637198285415</v>
       </c>
       <c r="D44" t="n">
-        <v>749.8839694216604</v>
+        <v>477.498021221791</v>
       </c>
       <c r="E44" t="n">
-        <v>364.0957168234162</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F44" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G44" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218342</v>
@@ -7651,7 +7651,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
@@ -7693,7 +7693,7 @@
         <v>1698.509627919559</v>
       </c>
       <c r="Y44" t="n">
-        <v>1494.749508092533</v>
+        <v>1591.326076833075</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>697.9541770656748</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C46" t="n">
-        <v>529.0179941377679</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D46" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E46" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F46" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G46" t="n">
         <v>66.51211643218342</v>
@@ -7839,19 +7839,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U46" t="n">
-        <v>879.6026418959145</v>
+        <v>800.8489669617832</v>
       </c>
       <c r="V46" t="n">
-        <v>879.6026418959145</v>
+        <v>800.8489669617832</v>
       </c>
       <c r="W46" t="n">
-        <v>879.6026418959145</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="X46" t="n">
-        <v>879.6026418959145</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="Y46" t="n">
-        <v>879.6026418959145</v>
+        <v>511.4317969248226</v>
       </c>
     </row>
   </sheetData>
@@ -22546,31 +22546,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>339.6637551973522</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>218.4267706822987</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>207.8369205319741</v>
       </c>
       <c r="E2" t="n">
-        <v>216.7578328961673</v>
+        <v>235.084248983553</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753916</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637382</v>
+        <v>413.2441370602317</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>318.3921602069877</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>131.1116955327425</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.324764167328709</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22594,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666381</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>162.1097117201341</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>214.0843260727917</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>251.1809648714442</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22612,7 +22612,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121492</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22640,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>136.2420688160423</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>101.5977720414757</v>
       </c>
       <c r="I3" t="n">
-        <v>58.9045589040915</v>
+        <v>61.59970664354542</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>22.7749124282733</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846321</v>
+        <v>77.29308816345807</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>151.2242511465658</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>66.38305545458985</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377112</v>
+        <v>79.02279728521543</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>85.95446606071644</v>
       </c>
       <c r="W3" t="n">
-        <v>64.1693959945998</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>55.9796690600414</v>
+        <v>58.92686411476865</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098455</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22716,22 +22716,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>93.20510176849702</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>145.6535030114759</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>154.0171532915746</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>127.6807984793224</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825419</v>
+        <v>61.70981873818779</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402855</v>
+        <v>21.72895798776025</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22743,25 +22743,25 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>7.935701265474336</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709389</v>
+        <v>26.04487966482523</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159727</v>
+        <v>74.18139529270546</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>135.7731919480611</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>207.923953009556</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>224.0000791711685</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2686611404426</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22786,25 +22786,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>177.7473046046877</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>265.0897779365644</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.097833230058</v>
+        <v>413.1696173863946</v>
       </c>
       <c r="H5" t="n">
-        <v>316.8938261062223</v>
+        <v>317.6289855973039</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4713171199747</v>
+        <v>128.2387758071391</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,22 +22831,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>81.59093052713877</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>160.4115946525719</v>
       </c>
       <c r="T5" t="n">
-        <v>213.4438810562068</v>
+        <v>46.97568950224161</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1692605650303</v>
+        <v>84.39257659920889</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>180.8502970342473</v>
       </c>
       <c r="W5" t="n">
-        <v>161.7153815510932</v>
+        <v>182.4585420190847</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22862,31 +22862,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>16.41994826103974</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1637893657753</v>
+        <v>136.2021972754605</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8417573507397</v>
+        <v>101.2126968995411</v>
       </c>
       <c r="I6" t="n">
-        <v>58.9045589040915</v>
+        <v>60.22693649632168</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265842</v>
+        <v>19.00792621918458</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.43289562846321</v>
+        <v>74.8175551438276</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7702446909496</v>
+        <v>150.483654767777</v>
       </c>
       <c r="T6" t="n">
-        <v>7.884010625681441</v>
+        <v>195.5644086209515</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8637684100909</v>
+        <v>59.08386854792607</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22928,10 +22928,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>170.8525722427628</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.15710861098455</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0019352027142</v>
+        <v>167.0341351039889</v>
       </c>
       <c r="H7" t="n">
-        <v>153.4336708318196</v>
+        <v>153.7199572267894</v>
       </c>
       <c r="I7" t="n">
-        <v>125.7072197708667</v>
+        <v>126.6755586201103</v>
       </c>
       <c r="J7" t="n">
-        <v>57.06999962825419</v>
+        <v>59.34653264837752</v>
       </c>
       <c r="K7" t="n">
-        <v>14.10430989402855</v>
+        <v>17.8453529694016</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22980,28 +22980,28 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>3.210952374594825</v>
       </c>
       <c r="P7" t="n">
-        <v>18.10760906709389</v>
+        <v>22.00204076308474</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.68604055159727</v>
+        <v>71.38234319379299</v>
       </c>
       <c r="R7" t="n">
-        <v>132.8223696106904</v>
+        <v>134.2701942625523</v>
       </c>
       <c r="S7" t="n">
-        <v>206.7802557954962</v>
+        <v>207.3414122568022</v>
       </c>
       <c r="T7" t="n">
-        <v>223.7196734901001</v>
+        <v>187.4234163286503</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2668378517016</v>
       </c>
       <c r="V7" t="n">
-        <v>199.9216970693937</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23035,7 +23035,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>225.5722460637382</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H8" t="n">
         <v>316.8938261062223</v>
@@ -23068,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>77.08171901666381</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>25.91829388988697</v>
+        <v>25.91829388988683</v>
       </c>
       <c r="U8" t="n">
-        <v>63.64367339871052</v>
+        <v>244.7725365789888</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>140.226671303815</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121491</v>
       </c>
       <c r="Y8" t="n">
-        <v>221.0654014799591</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>117.6201817126998</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>58.9045589040915</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
         <v>195.4095977920013</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377098</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>83.00727100598914</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715752</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098441</v>
       </c>
     </row>
     <row r="10">
@@ -23190,7 +23190,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>93.20510176849693</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.0019352027142</v>
@@ -23202,10 +23202,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>57.06999962825419</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K10" t="n">
-        <v>14.10430989402855</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,10 +23220,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>18.10760906709389</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q10" t="n">
-        <v>68.68604055159727</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R10" t="n">
         <v>132.8223696106904</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>234.3070520821566</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23260,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>49.76275620543629</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>72.31384051709642</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23475,10 +23475,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>12.80279477842763</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>186.3422650954119</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,19 +23551,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>338.350014594302</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>94.58829630063843</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23664,10 +23664,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -23712,16 +23712,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>12.80279477842706</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>180.0356022503629</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>229.2695069934078</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23797,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>348.9508612248987</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23898,13 +23898,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>224.8382213500436</v>
+        <v>68.59448580415534</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23974,22 +23974,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>88.3106803050365</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>149.1044152748385</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24034,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>4.276357450236475</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -24186,10 +24186,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24208,19 +24208,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>390.5277909978254</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
@@ -24259,7 +24259,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>285.4115533992081</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -24417,22 +24417,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>198.5902886500595</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>160.3027978282313</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24457,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>77.03537435212786</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>260.8244040287794</v>
       </c>
     </row>
     <row r="27">
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>107.7439527351647</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>161.4566887340202</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>279.8643344083839</v>
+        <v>75.94636426876343</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24846,13 +24846,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>78.09309857249688</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>203.922300982969</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24931,10 +24931,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>296.3711723859685</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>236.6825798705094</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25077,19 +25077,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>60.71080631283638</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>145.0671476329186</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25128,19 +25128,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25162,13 +25162,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>317.0092794716264</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -25210,19 +25210,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>112.3005183048497</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25323,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
@@ -25365,19 +25365,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>100.4001306773533</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>141.2829290802056</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,16 +25399,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>116.9817111225209</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25453,13 +25453,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>291.7537355206665</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>145.0671476329185</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25605,19 +25605,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>160.3027978282313</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>292.3254924742274</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
@@ -25788,19 +25788,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>60.17918790814745</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>50.18328106465123</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25867,22 +25867,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>184.5154200272973</v>
+        <v>280.1262230804343</v>
       </c>
     </row>
     <row r="45">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26079,13 +26079,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>245.3403179225652</v>
+        <v>167.3741797377752</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>433263.0758337675</v>
+        <v>402256.5418769753</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>433263.0758337677</v>
+        <v>417888.8482179075</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587488</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587493</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>855506.5411587488</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>855506.5411587491</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>855506.5411587491</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587491</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>855506.5411587488</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>149975.680096304</v>
+        <v>139242.6491112606</v>
       </c>
       <c r="C2" t="n">
-        <v>149975.680096304</v>
+        <v>144653.8320754294</v>
       </c>
       <c r="D2" t="n">
-        <v>149975.680096304</v>
+        <v>149975.6800963041</v>
       </c>
       <c r="E2" t="n">
         <v>296136.8796318746</v>
@@ -26328,31 +26328,31 @@
         <v>296136.8796318747</v>
       </c>
       <c r="G2" t="n">
+        <v>296136.8796318747</v>
+      </c>
+      <c r="H2" t="n">
+        <v>296136.8796318747</v>
+      </c>
+      <c r="I2" t="n">
         <v>296136.8796318746</v>
       </c>
-      <c r="H2" t="n">
-        <v>296136.8796318746</v>
-      </c>
-      <c r="I2" t="n">
-        <v>296136.8796318747</v>
-      </c>
       <c r="J2" t="n">
-        <v>296136.8796318744</v>
+        <v>296136.8796318745</v>
       </c>
       <c r="K2" t="n">
         <v>296136.8796318744</v>
       </c>
       <c r="L2" t="n">
+        <v>296136.8796318746</v>
+      </c>
+      <c r="M2" t="n">
         <v>296136.8796318745</v>
-      </c>
-      <c r="M2" t="n">
-        <v>296136.8796318747</v>
       </c>
       <c r="N2" t="n">
         <v>296136.8796318745</v>
       </c>
       <c r="O2" t="n">
-        <v>296136.8796318744</v>
+        <v>296136.8796318746</v>
       </c>
       <c r="P2" t="n">
         <v>296136.8796318744</v>
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208453</v>
+        <v>542655.4349751307</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23320.45473340611</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>21735.84085679087</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.6436336678</v>
+        <v>627134.6436336676</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854453</v>
+        <v>38421.40650613405</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5130.967102136645</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>5249.907226004376</v>
       </c>
       <c r="M3" t="n">
         <v>160456.4418678774</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.8001180723339</v>
+        <v>107.192147960263</v>
       </c>
       <c r="C4" t="n">
-        <v>137.8001180723339</v>
+        <v>122.1898065383436</v>
       </c>
       <c r="D4" t="n">
-        <v>137.8001180723339</v>
+        <v>137.800118072334</v>
       </c>
       <c r="E4" t="n">
         <v>584.6469890061231</v>
       </c>
       <c r="F4" t="n">
-        <v>584.6469890061234</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="G4" t="n">
-        <v>584.6469890061234</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="H4" t="n">
         <v>584.6469890061232</v>
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161356</v>
+        <v>53719.11977902091</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.80041161356</v>
+        <v>55335.34872138573</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161356</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
         <v>74306.3405613933</v>
@@ -26499,7 +26499,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-510698.8849732618</v>
+        <v>-458518.1319426715</v>
       </c>
       <c r="C6" t="n">
-        <v>80658.01754758343</v>
+        <v>64626.8667898576</v>
       </c>
       <c r="D6" t="n">
-        <v>80658.01754758351</v>
+        <v>69896.83250792384</v>
       </c>
       <c r="E6" t="n">
-        <v>-409962.7469303623</v>
+        <v>-406296.1510900094</v>
       </c>
       <c r="F6" t="n">
-        <v>217171.8967033055</v>
+        <v>220838.4925436583</v>
       </c>
       <c r="G6" t="n">
-        <v>217171.8967033056</v>
+        <v>220838.4925436583</v>
       </c>
       <c r="H6" t="n">
-        <v>217171.8967033056</v>
+        <v>220838.4925436583</v>
       </c>
       <c r="I6" t="n">
-        <v>217171.8967033058</v>
+        <v>220838.4925436582</v>
       </c>
       <c r="J6" t="n">
-        <v>168106.9519747609</v>
+        <v>182417.0860375241</v>
       </c>
       <c r="K6" t="n">
-        <v>217171.8967033054</v>
+        <v>215707.5254415214</v>
       </c>
       <c r="L6" t="n">
-        <v>217171.8967033055</v>
+        <v>215588.5853176538</v>
       </c>
       <c r="M6" t="n">
-        <v>56715.45483542824</v>
+        <v>60382.05067578069</v>
       </c>
       <c r="N6" t="n">
-        <v>217171.8967033055</v>
+        <v>220838.4925436581</v>
       </c>
       <c r="O6" t="n">
-        <v>217171.8967033053</v>
+        <v>220838.4925436582</v>
       </c>
       <c r="P6" t="n">
-        <v>217171.8967033054</v>
+        <v>220838.492543658</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>512.0768631572211</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129045</v>
+        <v>530.6136320241911</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26789,43 +26789,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5255871663198</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022925</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>512.0768631572211</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>18.53676886697008</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>17.85630888871344</v>
       </c>
       <c r="E3" t="n">
-        <v>541.3067596803938</v>
+        <v>541.3067596803937</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>19.93630560961952</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>20.7431604679916</v>
       </c>
       <c r="E4" t="n">
-        <v>643.8758682359729</v>
+        <v>643.8758682359727</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663196</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>19.93630560961986</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>20.74316046799126</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359729</v>
+        <v>643.875868235973</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>19.93630560961952</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>20.7431604679916</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359729</v>
+        <v>643.8758682359727</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077001</v>
+        <v>2.0586004549034</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954484</v>
+        <v>21.08264190877945</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043117</v>
+        <v>79.3641940376634</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>174.7211403593576</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528638</v>
+        <v>261.8616976154185</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672891</v>
+        <v>324.8625912871685</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470272</v>
+        <v>361.4722271270568</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470023</v>
+        <v>367.3212256695512</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622679</v>
+        <v>346.8510173961055</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>296.0293186656777</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>222.3056898744497</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>129.3135608253258</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619221</v>
+        <v>46.91035786611127</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924577</v>
+        <v>9.011523491339636</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1646880363922719</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.101448347168362</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>10.63767219502076</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>37.92267335645458</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>104.0627142383934</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621736</v>
+        <v>138.4613654251943</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>239.1543878358324</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>279.0818904206855</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829653</v>
+        <v>278.1878331720421</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>262.0625810914129</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628871</v>
+        <v>210.3283251711235</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>140.5989153332808</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550074</v>
+        <v>68.38641580050589</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>20.45891995727198</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820368</v>
+        <v>4.439609785297038</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07246370705055018</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.9234172942179395</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620014</v>
+        <v>8.210019215864959</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639161</v>
+        <v>27.76967644793586</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114192</v>
+        <v>65.28560270120832</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>107.2843001827751</v>
       </c>
       <c r="L4" t="n">
-        <v>147.043892027699</v>
+        <v>137.2869675421835</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>144.7498582199994</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604414</v>
+        <v>141.308030123369</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>130.5208371863685</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>111.6831243843224</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784857</v>
+        <v>77.32360633674038</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647909</v>
+        <v>41.52019942910843</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>16.09264502741627</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>3.945510257113013</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.05036821604825131</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077001</v>
+        <v>2.133120128740465</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954484</v>
+        <v>21.84581651846329</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043117</v>
+        <v>82.23711376326686</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655543</v>
+        <v>181.0459045266862</v>
       </c>
       <c r="K5" t="n">
-        <v>280.4720934528638</v>
+        <v>271.3408795762702</v>
       </c>
       <c r="L5" t="n">
-        <v>347.9504329672891</v>
+        <v>336.6223547162112</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470272</v>
+        <v>374.5572298056995</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470023</v>
+        <v>380.6179573714834</v>
       </c>
       <c r="O5" t="n">
-        <v>371.5015668622679</v>
+        <v>359.4067440913203</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244294</v>
+        <v>306.7453409130401</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151092</v>
+        <v>230.3529763025221</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974683</v>
+        <v>133.9946072869934</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619221</v>
+        <v>48.6084749336734</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924577</v>
+        <v>9.337733363561391</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1706496102992372</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.179727797435304</v>
+        <v>1.141319887750147</v>
       </c>
       <c r="H6" t="n">
-        <v>11.39368688575675</v>
+        <v>11.02274733695537</v>
       </c>
       <c r="I6" t="n">
-        <v>40.6178210959085</v>
+        <v>39.29544350367831</v>
       </c>
       <c r="J6" t="n">
-        <v>111.4584056340083</v>
+        <v>107.8297004474821</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621736</v>
+        <v>184.2981329267419</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405032</v>
+        <v>247.8115835222414</v>
       </c>
       <c r="M6" t="n">
-        <v>298.9161177975329</v>
+        <v>262.6874582801975</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829653</v>
+        <v>296.8382808056841</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292673</v>
+        <v>271.5490348718519</v>
       </c>
       <c r="P6" t="n">
-        <v>225.2762668628872</v>
+        <v>217.9420406704645</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.5912184936714</v>
+        <v>145.68848251351</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550074</v>
+        <v>70.86194882013635</v>
       </c>
       <c r="S6" t="n">
-        <v>21.9129264128882</v>
+        <v>21.19951633606083</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820368</v>
+        <v>4.600320073870108</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07508683472040444</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.9568442544698528</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620014</v>
+        <v>8.507215280650152</v>
       </c>
       <c r="I7" t="n">
-        <v>29.74325515639161</v>
+        <v>28.77491630714794</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114192</v>
+        <v>67.64888879101859</v>
       </c>
       <c r="K7" t="n">
-        <v>114.9089482765068</v>
+        <v>111.1679052011338</v>
       </c>
       <c r="L7" t="n">
-        <v>147.043892027699</v>
+        <v>142.2566448872725</v>
       </c>
       <c r="M7" t="n">
-        <v>155.0371670682165</v>
+        <v>149.9896861802152</v>
       </c>
       <c r="N7" t="n">
-        <v>151.3507297604414</v>
+        <v>146.4232666862822</v>
       </c>
       <c r="O7" t="n">
-        <v>139.7968957592433</v>
+        <v>135.245586077248</v>
       </c>
       <c r="P7" t="n">
-        <v>119.6203949820537</v>
+        <v>115.7259632860629</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784857</v>
+        <v>80.12265843565285</v>
       </c>
       <c r="R7" t="n">
-        <v>44.47102176647909</v>
+        <v>43.02319711461719</v>
       </c>
       <c r="S7" t="n">
-        <v>17.23634224147602</v>
+        <v>16.67518578017006</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181394</v>
+        <v>4.088334541825733</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.05219150478926476</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,31 +31515,31 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043117</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J8" t="n">
         <v>187.1384950655543</v>
       </c>
       <c r="K8" t="n">
-        <v>280.4720934528638</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9504329672891</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470023</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O8" t="n">
-        <v>371.5015668622679</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P8" t="n">
         <v>317.0679923244294</v>
@@ -31551,10 +31551,10 @@
         <v>138.5038187974683</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924577</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U8" t="n">
         <v>0.1763923428061601</v>
@@ -31597,7 +31597,7 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
         <v>40.6178210959085</v>
@@ -31606,7 +31606,7 @@
         <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
         <v>256.1509851405032</v>
@@ -31615,7 +31615,7 @@
         <v>298.9161177975329</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O9" t="n">
         <v>280.6872536292673</v>
@@ -31624,19 +31624,19 @@
         <v>225.2762668628872</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550074</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S9" t="n">
         <v>21.9129264128882</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820368</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620014</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I10" t="n">
-        <v>29.74325515639161</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114192</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K10" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L10" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N10" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P10" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784857</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R10" t="n">
-        <v>44.47102176647909</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
         <v>4.225915938181394</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31998,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32235,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32387,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32472,40 +32472,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356356</v>
+        <v>275.1987363563574</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026431</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32624,43 +32624,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33739,7 +33739,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868023</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788327</v>
+        <v>41.77184657043796</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973019</v>
+        <v>89.09617631718129</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197545</v>
+        <v>131.1259938997841</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504114</v>
+        <v>137.9081620729602</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405811</v>
+        <v>116.7528059744187</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915984</v>
+        <v>64.79632291040821</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406597</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781463</v>
+        <v>0.6199264508352826</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>100.6000080559582</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>136.9478564986671</v>
       </c>
       <c r="N3" t="n">
-        <v>175.485825899632</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848228</v>
+        <v>119.4663366469685</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855687</v>
+        <v>76.35391775679327</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764993</v>
+        <v>0.6171412472592692</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646075</v>
+        <v>2.402291260945219</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061149</v>
+        <v>5.824074272394313</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520823</v>
+        <v>13.62248565813579</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400495</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538868023</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>60.38224240788327</v>
+        <v>51.25102853128965</v>
       </c>
       <c r="L5" t="n">
-        <v>112.1840179973019</v>
+        <v>100.855939746224</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197545</v>
+        <v>144.2109965784267</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504114</v>
+        <v>151.2048937748925</v>
       </c>
       <c r="O5" t="n">
-        <v>141.4033554405811</v>
+        <v>129.3085326696336</v>
       </c>
       <c r="P5" t="n">
-        <v>85.83499656915984</v>
+        <v>75.51234515777054</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.7991677406597</v>
+        <v>8.047286428072596</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781463</v>
+        <v>46.45669395238295</v>
       </c>
       <c r="L6" t="n">
-        <v>117.596605360629</v>
+        <v>109.2572037423672</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755146</v>
+        <v>120.5534243581792</v>
       </c>
       <c r="N6" t="n">
-        <v>175.485825899632</v>
+        <v>165.4965687223508</v>
       </c>
       <c r="O6" t="n">
-        <v>138.0910091848228</v>
+        <v>128.9527904274074</v>
       </c>
       <c r="P6" t="n">
-        <v>91.30185944855691</v>
+        <v>83.96763325613423</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440764993</v>
+        <v>5.706708427488479</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>12.15921574646075</v>
+        <v>7.371968606034216</v>
       </c>
       <c r="M7" t="n">
-        <v>16.11138312061149</v>
+        <v>11.0639022326101</v>
       </c>
       <c r="N7" t="n">
-        <v>23.66518529520823</v>
+        <v>18.73772222104901</v>
       </c>
       <c r="O7" t="n">
-        <v>1.340357307400495</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538868023</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788327</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L8" t="n">
-        <v>112.1840179973019</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504114</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405811</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P8" t="n">
-        <v>85.83499656915984</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.7991677406597</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781463</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L9" t="n">
         <v>117.596605360629</v>
@@ -35263,16 +35263,16 @@
         <v>156.7820838755146</v>
       </c>
       <c r="N9" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O9" t="n">
-        <v>138.0910091848228</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P9" t="n">
-        <v>91.30185944855691</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440764993</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,16 +35336,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>12.15921574646075</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M10" t="n">
-        <v>16.11138312061149</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N10" t="n">
-        <v>23.66518529520823</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O10" t="n">
-        <v>1.340357307400495</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K16" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L16" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M16" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N16" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O16" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K19" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L19" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M19" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N19" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O19" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222388</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597635</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K22" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L22" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M22" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N22" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O22" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P22" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
